--- a/AAII_Financials/Quarterly/UNFI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UNFI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>UNFI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,205 +665,218 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43862</v>
+      </c>
+      <c r="E7" s="2">
         <v>43771</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43680</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43582</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43491</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43400</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43309</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43218</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43127</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43036</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42945</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42854</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42763</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6137600</v>
+      </c>
+      <c r="E8" s="3">
         <v>6019600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6407100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5962600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6149200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2868200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2592200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2648900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2528000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2457500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2341000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2369600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2285500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2278400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5362100</v>
+      </c>
+      <c r="E9" s="3">
         <v>5248500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5584700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5174100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5387400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2455800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2216300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2240800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2156500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2090300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1972400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2003200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1940600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1929300</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>775500</v>
+      </c>
+      <c r="E10" s="3">
         <v>771100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>822400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>788500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>761800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>412400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>375900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>408100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>371500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>367200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>368600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>366400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>344900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>349100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -880,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -924,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,60 +985,66 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E14" s="3">
         <v>438400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-20900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-18800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>418000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>68000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>11200</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3900</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>69200</v>
+      </c>
+      <c r="E15" s="3">
         <v>75100</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
@@ -1038,8 +1061,8 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1056,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6142700</v>
+      </c>
+      <c r="E17" s="3">
         <v>6463600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6340800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5892900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6557300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2887000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2542500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2566700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2487800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2402400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2279600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2304600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2239200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2225000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-444000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>66300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>69700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-408100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-18800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>49700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>82200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>40200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>55100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>61400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>65000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>46300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,104 +1210,111 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E20" s="3">
         <v>11500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-45600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-44900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-47000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>68100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-357400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>97700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>96500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-381900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>71800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>104000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>62500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>78500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>89600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>86000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>67700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>74300</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E22" s="3">
         <v>49600</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
@@ -1282,123 +1322,132 @@
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3">
         <v>7700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-49900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-482100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>20700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>24700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-455100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-25600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>46000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>77800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>36500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>52400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>63500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>60300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>42000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-73800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>19500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-8000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-91800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-4300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>14100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>24900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>21900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>24700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>23700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>16500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-408400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>32800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-363300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-21400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>32000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>52900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>28600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>30500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>38900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>36600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>25500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-408900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>32700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-363100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-21400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>32000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>52900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>28600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>30500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>38900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>36600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>25500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,37 +1631,40 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E29" s="3">
         <v>25000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>18000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>24400</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>21400</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>2100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-1000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>21900</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1617,8 +1678,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-11500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>45600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>44900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>47000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-383900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>18900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>57100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-341700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-19300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>32800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>51900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>50500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>30500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>38900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>36600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>25500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-383900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>18900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>57100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-341700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-19300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>32800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>51900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>50500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>30500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>38900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>36600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>25500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43862</v>
+      </c>
+      <c r="E38" s="2">
         <v>43771</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43680</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43582</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43491</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43400</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43309</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43218</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43127</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43036</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42945</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42854</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42763</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,52 +2052,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>40100</v>
+      </c>
+      <c r="E41" s="3">
         <v>39800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>42400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>37900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>49500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>53900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>23300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>21800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>25400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>30700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2054,207 +2144,222 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1136900</v>
+        <v>1087800</v>
       </c>
       <c r="E43" s="3">
+        <v>1148200</v>
+      </c>
+      <c r="F43" s="3">
         <v>1065700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1049300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1094900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1114000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>579700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>635200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>629400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>598700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>525600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>547800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>514900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>534300</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2134900</v>
+      </c>
+      <c r="E44" s="3">
         <v>2325000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2089400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2215000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2242700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2405000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1135800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1195900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1140900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1167500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1031700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1042000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>992600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1077900</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>348300</v>
+        <v>356700</v>
       </c>
       <c r="E45" s="3">
+        <v>337100</v>
+      </c>
+      <c r="F45" s="3">
         <v>370500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>333000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>279600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>917100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>50100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>42000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>61500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>51500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>89900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>89000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>100300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>78700</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3619500</v>
+      </c>
+      <c r="E46" s="3">
         <v>3850000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3567900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3635100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3666700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4490000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1788900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1894800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1857200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1838900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1662700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1695000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1638400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1704600</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>24300</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>25700</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2274,96 +2379,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2532700</v>
+      </c>
+      <c r="E48" s="3">
         <v>2545400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1639300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1648200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1658000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1544000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>571100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>574200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>578100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>588600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>602100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>603400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>604600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>608300</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>997900</v>
+      </c>
+      <c r="E49" s="3">
         <v>1019400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1483300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1543700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1535300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1986200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>555700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>559900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>564700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>575200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>579500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>580900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>586100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>594700</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,52 +2567,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>548700</v>
+        <v>508100</v>
       </c>
       <c r="E52" s="3">
+        <v>523000</v>
+      </c>
+      <c r="F52" s="3">
         <v>490500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>500200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>538300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>567500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>48700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>50000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>49800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>43500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>42300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>41300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>40900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7682400</v>
+      </c>
+      <c r="E54" s="3">
         <v>7963500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7181000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7327200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7398300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8587600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2964500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3078800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3049700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3046300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2886600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2920600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2870000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2943000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,272 +2748,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1462800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1606500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1476900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1472300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1452600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1485800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>517100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>543600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>627100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>638500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>534600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>547000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>449500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>514400</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E58" s="3">
         <v>34500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>112100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>133700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>143600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>730400</v>
-      </c>
-      <c r="I58" s="3">
-        <v>12400</v>
       </c>
       <c r="J58" s="3">
         <v>12400</v>
       </c>
       <c r="K58" s="3">
+        <v>12400</v>
+      </c>
+      <c r="L58" s="3">
         <v>12300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>12200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>12100</v>
-      </c>
-      <c r="N58" s="3">
-        <v>12000</v>
       </c>
       <c r="O58" s="3">
         <v>12000</v>
       </c>
       <c r="P58" s="3">
+        <v>12000</v>
+      </c>
+      <c r="Q58" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>664000</v>
+      </c>
+      <c r="E59" s="3">
         <v>639400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>520000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>496200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>582800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>616600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>169700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>176100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>159300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>164800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>157200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>151800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>144500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2159000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2280300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2108900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2102100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2179100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2832800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>699200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>732200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>798700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>815600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>704000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>710800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>606100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>683000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2973900</v>
+      </c>
+      <c r="E61" s="3">
         <v>3119900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2927300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3066900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3089900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3239700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>347700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>469700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>430800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>434800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>373500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>457100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>549400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>582400</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1450400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1440100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>633800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>627900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>645900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>684800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>71600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>64600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>65400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>87900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>127200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>123500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>124300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>125200</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6580400</v>
+      </c>
+      <c r="E66" s="3">
         <v>6837000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5667300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5795000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5912900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6755700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1118500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1266500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1294900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1338200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1204600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1291400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1279800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1390600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>698300</v>
+      </c>
+      <c r="E72" s="3">
         <v>729000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1115500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1096600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1039500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1381200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1400200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1367400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1315600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1265100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1235400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1196500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1159900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1134400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1102100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1126600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1513700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1532200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1485400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1831900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1846000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1812300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1754700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1708100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1681900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1629200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1590200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1552500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43862</v>
+      </c>
+      <c r="E80" s="2">
         <v>43771</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43680</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43582</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43491</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43400</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43309</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43218</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43127</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43036</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42945</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42854</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42763</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-383900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>18900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>57100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-341700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-19300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>32800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>51900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>50500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>30500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>38900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>36600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>25500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,52 +3825,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>69200</v>
+      </c>
+      <c r="E83" s="3">
         <v>75100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>77000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>71800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>73200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>24800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>21600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>21700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>22400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>22100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>21500</v>
-      </c>
-      <c r="O83" s="3">
-        <v>21200</v>
       </c>
       <c r="P83" s="3">
         <v>21200</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>21200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-134900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>207300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>51300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>132900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-107000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>140700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-27900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>36700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-40200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>117700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>66200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>104200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-7300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,52 +4173,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-43500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-41100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-70900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-56800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-63800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-16400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-14100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-16100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-17300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-23900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-59000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-50500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2140900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-14700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-14500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-16500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-19300</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-140400</v>
+      </c>
+      <c r="E100" s="3">
         <v>156100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-144000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-15500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-693700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2849500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-148100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>31400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-19900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>82600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-110400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-64000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-71800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4376,83 +4625,89 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1800</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-13000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-571000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>601600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-14500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>17100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UNFI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UNFI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>UNFI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43953</v>
+      </c>
+      <c r="E7" s="2">
         <v>43862</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43771</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43680</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43582</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43491</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43400</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43309</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43218</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43127</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43036</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42945</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42854</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42763</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6667700</v>
+      </c>
+      <c r="E8" s="3">
         <v>6137600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6019600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6407100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5962600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6149200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2868200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2592200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2648900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2528000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2457500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2341000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2369600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2285500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2278400</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5811200</v>
+      </c>
+      <c r="E9" s="3">
         <v>5362100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5248500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5584700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5174100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5387400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2455800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2216300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2240800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2156500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2090300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1972400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2003200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1940600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1929300</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>856500</v>
+      </c>
+      <c r="E10" s="3">
         <v>775500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>771100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>822400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>788500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>761800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>412400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>375900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>408100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>371500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>367200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>368600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>366400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>344900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>349100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,66 +1005,72 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
         <v>15400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>438400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-20900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-18800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>418000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>68000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>11200</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3900</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>69600</v>
+      </c>
+      <c r="E15" s="3">
         <v>69200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>75100</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -1064,8 +1087,8 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6596000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6142700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6463600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6340800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5892900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6557300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2887000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2542500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2566700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2487800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2402400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2279600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2304600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2239200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2225000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-444000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>66300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>69700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-408100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-18800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>49700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>82200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>40200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>55100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>61400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>65000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>46300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,113 +1244,120 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E20" s="3">
         <v>3900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>11500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-45600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-44900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-47000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>156300</v>
+      </c>
+      <c r="E21" s="3">
         <v>68100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-357400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>97700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>96500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-381900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>71800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>104000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>62500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>78500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>89600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>86000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>67700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>74300</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E22" s="3">
         <v>48700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>49600</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -1325,129 +1365,138 @@
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3">
         <v>7700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-49900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-482100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>20700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>24700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-455100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-25600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>46000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>77800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>36500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>52400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>63500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>60300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>42000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-17700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-73800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>19500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-8000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-91800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-4300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>14100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>24900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>21900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>24700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>23700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>16500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-32200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-408400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>32800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-363300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-21400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>32000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>52900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>28600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>30500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>38900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>36600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>25500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-32800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-408900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>32700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-363100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-21400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>32000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>52900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>28600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>30500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>38900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>36600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>25500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,40 +1692,43 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E29" s="3">
         <v>2100</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>25000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>18000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>24400</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>21400</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>2100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-1000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>21900</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-11500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>45600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>44900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>47000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>88100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-30700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-383900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>18900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>57100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-341700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-19300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>32800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>51900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>50500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>30500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>38900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>36600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>25500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>88100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-30700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-383900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>18900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>57100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-341700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-19300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>32800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>51900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>50500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>30500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>38900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>36600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>25500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43953</v>
+      </c>
+      <c r="E38" s="2">
         <v>43862</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43771</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43680</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43582</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43491</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43400</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43309</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43218</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43127</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43036</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42945</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42854</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42763</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E41" s="3">
         <v>40100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>39800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>42400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>37900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>49500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>53900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>23300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>25400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>30700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,207 +2237,222 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1244700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1087800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1148200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1065700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1049300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1094900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1114000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>579700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>635200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>629400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>598700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>525600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>547800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>514900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>534300</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2025700</v>
+      </c>
+      <c r="E44" s="3">
         <v>2134900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2325000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2089400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2215000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2242700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2405000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1135800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1195900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1140900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1167500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1031700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1042000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>992600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1077900</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>396600</v>
+      </c>
+      <c r="E45" s="3">
         <v>356700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>337100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>370500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>333000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>279600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>917100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>50100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>42000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>61500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>51500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>89900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>89000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>100300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>78700</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3723500</v>
+      </c>
+      <c r="E46" s="3">
         <v>3619500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3850000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3567900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3635100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3666700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4490000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1788900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1894800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1857200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1838900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1662700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1695000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1638400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1704600</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E47" s="3">
         <v>24300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>25700</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
@@ -2361,8 +2466,8 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2382,102 +2487,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2518300</v>
+      </c>
+      <c r="E48" s="3">
         <v>2532700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2545400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1639300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1648200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1658000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1544000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>571100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>574200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>578100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>588600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>602100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>603400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>604600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>608300</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>975900</v>
+      </c>
+      <c r="E49" s="3">
         <v>997900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1019400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1483300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1543700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1535300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1986200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>555700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>559900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>564700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>575200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>579500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>580900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>586100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>594700</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>457700</v>
+      </c>
+      <c r="E52" s="3">
         <v>508100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>523000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>490500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>500200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>538300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>567500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>48700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>50000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>49800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>43500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>42300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>41300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>40900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7700800</v>
+      </c>
+      <c r="E54" s="3">
         <v>7682400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7963500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7181000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7327200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7398300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8587600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2964500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3078800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3049700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3046300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2886600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2920600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2870000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2943000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +2879,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1716300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1462800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1606500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1476900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1472300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1452600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1485800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>517100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>543600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>627100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>638500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>534600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>547000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>449500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>514400</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E58" s="3">
         <v>32200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>34500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>112100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>133700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>143600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>730400</v>
-      </c>
-      <c r="J58" s="3">
-        <v>12400</v>
       </c>
       <c r="K58" s="3">
         <v>12400</v>
       </c>
       <c r="L58" s="3">
+        <v>12400</v>
+      </c>
+      <c r="M58" s="3">
         <v>12300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>12200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>12100</v>
-      </c>
-      <c r="O58" s="3">
-        <v>12000</v>
       </c>
       <c r="P58" s="3">
         <v>12000</v>
       </c>
       <c r="Q58" s="3">
+        <v>12000</v>
+      </c>
+      <c r="R58" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>727900</v>
+      </c>
+      <c r="E59" s="3">
         <v>664000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>639400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>520000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>496200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>582800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>616600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>169700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>176100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>159300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>164800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>157200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>151800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>144500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2477600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2159000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2280300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2108900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2102100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2179100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2832800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>699200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>732200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>798700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>815600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>704000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>710800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>606100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>683000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2687300</v>
+      </c>
+      <c r="E61" s="3">
         <v>2973900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3119900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2927300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3066900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3089900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3239700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>347700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>469700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>430800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>434800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>373500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>457100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>549400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>582400</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1367900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1450400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1440100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>633800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>627900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>645900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>684800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>71600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>64600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>65400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>87900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>127200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>123500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>124300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>125200</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6531000</v>
+      </c>
+      <c r="E66" s="3">
         <v>6580400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6837000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5667300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5795000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5912900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6755700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1118500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1266500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1294900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1338200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1204600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1291400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1279800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1390600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>786400</v>
+      </c>
+      <c r="E72" s="3">
         <v>698300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>729000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1115500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1096600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1039500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1381200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1400200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1367400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1315600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1265100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1235400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1196500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1159900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1134400</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1169800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1102100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1126600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1513700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1532200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1485400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1831900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1846000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1812300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1754700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1708100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1681900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1629200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1590200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1552500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43953</v>
+      </c>
+      <c r="E80" s="2">
         <v>43862</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43771</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43680</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43582</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43491</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43400</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43309</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43218</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43127</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43036</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42945</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42854</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42763</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>88100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-30700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-383900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>18900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>57100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-341700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-19300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>32800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>51900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>50500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>30500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>38900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>36600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>25500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>69600</v>
+      </c>
+      <c r="E83" s="3">
         <v>69200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>75100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>77000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>71800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>73200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>24800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>21600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>21800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>22400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>22100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>21500</v>
-      </c>
-      <c r="P83" s="3">
-        <v>21200</v>
       </c>
       <c r="Q83" s="3">
         <v>21200</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>21200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>413200</v>
+      </c>
+      <c r="E89" s="3">
         <v>174000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-134900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>207300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>51300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>132900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-107000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>140700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-27900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>36700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-40200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>117700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>66200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>104200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-7300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-43500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-41100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-70900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-56800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-63800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-16400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-14100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-16100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-17300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-33800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-23900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-59000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-50500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2140900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-14700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-13300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-16500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-19300</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-381100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-140400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>156100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-144000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-15500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-693700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2849500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-148100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>31400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-19900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>82600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-110400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-64000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-71800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1800</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-13000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-571000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>601600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-14500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>17100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UNFI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UNFI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44044</v>
+      </c>
+      <c r="E7" s="2">
         <v>43953</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43862</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43771</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43680</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43582</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43491</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43400</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43309</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43218</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43127</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43036</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42945</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42854</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42763</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7689400</v>
+      </c>
+      <c r="E8" s="3">
         <v>6667700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6137600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6019600</v>
       </c>
-      <c r="G8" s="3">
-        <v>6407100</v>
-      </c>
       <c r="H8" s="3">
+        <v>7327500</v>
+      </c>
+      <c r="I8" s="3">
         <v>5962600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6149200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2868200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2592200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2648900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2528000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2457500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2341000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2369600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2285500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2278400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6217600</v>
+      </c>
+      <c r="E9" s="3">
         <v>5811200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5362100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5248500</v>
       </c>
-      <c r="G9" s="3">
-        <v>5584700</v>
-      </c>
       <c r="H9" s="3">
+        <v>6081500</v>
+      </c>
+      <c r="I9" s="3">
         <v>5174100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5387400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2455800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2216300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2240800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2156500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2090300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1972400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2003200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1940600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1929300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1471800</v>
+      </c>
+      <c r="E10" s="3">
         <v>856500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>775500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>771100</v>
       </c>
-      <c r="G10" s="3">
-        <v>822400</v>
-      </c>
       <c r="H10" s="3">
+        <v>1246000</v>
+      </c>
+      <c r="I10" s="3">
         <v>788500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>761800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>412400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>375900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>408100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>371500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>367200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>368600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>366400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>344900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>349100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,72 +1025,78 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2000</v>
+        <v>52300</v>
       </c>
       <c r="E14" s="3">
-        <v>15400</v>
+        <v>22000</v>
       </c>
       <c r="F14" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G14" s="3">
         <v>438400</v>
       </c>
-      <c r="G14" s="3">
-        <v>-20900</v>
-      </c>
       <c r="H14" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="I14" s="3">
         <v>-18800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>418000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>68000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>11200</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3900</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>69600</v>
+        <v>3800</v>
       </c>
       <c r="E15" s="3">
-        <v>69200</v>
+        <v>3900</v>
       </c>
       <c r="F15" s="3">
-        <v>75100</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
+        <v>3700</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4700</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -1090,8 +1113,8 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7506600</v>
+      </c>
+      <c r="E17" s="3">
         <v>6596000</v>
       </c>
-      <c r="E17" s="3">
-        <v>6142700</v>
-      </c>
       <c r="F17" s="3">
+        <v>6132400</v>
+      </c>
+      <c r="G17" s="3">
         <v>6463600</v>
       </c>
-      <c r="G17" s="3">
-        <v>6340800</v>
-      </c>
       <c r="H17" s="3">
+        <v>7170000</v>
+      </c>
+      <c r="I17" s="3">
         <v>5892900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6557300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2887000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2542500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2566700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2487800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2402400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2279600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2304600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2239200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2225000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>182800</v>
+      </c>
+      <c r="E18" s="3">
         <v>71700</v>
       </c>
-      <c r="E18" s="3">
-        <v>-5100</v>
-      </c>
       <c r="F18" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-444000</v>
       </c>
-      <c r="G18" s="3">
-        <v>66300</v>
-      </c>
       <c r="H18" s="3">
+        <v>157500</v>
+      </c>
+      <c r="I18" s="3">
         <v>69700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-408100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-18800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>49700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>82200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>40200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>55100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>61400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>65000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>46300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,122 +1278,129 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E20" s="3">
         <v>14900</v>
       </c>
-      <c r="E20" s="3">
-        <v>3900</v>
-      </c>
       <c r="F20" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="G20" s="3">
         <v>11500</v>
       </c>
-      <c r="G20" s="3">
-        <v>-45600</v>
-      </c>
       <c r="H20" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-44900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-47000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>263900</v>
+      </c>
+      <c r="E21" s="3">
         <v>156300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>68100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-357400</v>
       </c>
-      <c r="G21" s="3">
-        <v>97700</v>
-      </c>
       <c r="H21" s="3">
+        <v>188600</v>
+      </c>
+      <c r="I21" s="3">
         <v>96500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-381900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>71800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>104000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>62500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>78500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>89600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>86000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>67700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>74300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E22" s="3">
         <v>48300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>48700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>49600</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
@@ -1368,135 +1408,144 @@
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
         <v>7700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>149200</v>
+      </c>
+      <c r="E23" s="3">
         <v>38300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-49900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-482100</v>
       </c>
-      <c r="G23" s="3">
-        <v>20700</v>
-      </c>
       <c r="H23" s="3">
+        <v>111500</v>
+      </c>
+      <c r="I23" s="3">
         <v>24700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-455100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-25600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>46000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>77800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>36500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>52400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>63500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>60300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>42000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-14800</v>
+        <v>27000</v>
       </c>
       <c r="E24" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F24" s="3">
         <v>-17700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-73800</v>
       </c>
-      <c r="G24" s="3">
-        <v>19500</v>
-      </c>
       <c r="H24" s="3">
+        <v>45200</v>
+      </c>
+      <c r="I24" s="3">
         <v>-8000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-91800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-4300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>24900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>21900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>24700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>23700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>16500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>53200</v>
+        <v>122200</v>
       </c>
       <c r="E26" s="3">
+        <v>24800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-32200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-408400</v>
       </c>
-      <c r="G26" s="3">
-        <v>1200</v>
-      </c>
       <c r="H26" s="3">
+        <v>66400</v>
+      </c>
+      <c r="I26" s="3">
         <v>32800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-363300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-21400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>32000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>52900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>28600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>30500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>38900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>36600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>25500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>50900</v>
+        <v>120700</v>
       </c>
       <c r="E27" s="3">
+        <v>22500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-32800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-408900</v>
       </c>
-      <c r="G27" s="3">
-        <v>1000</v>
-      </c>
       <c r="H27" s="3">
+        <v>66100</v>
+      </c>
+      <c r="I27" s="3">
         <v>32700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-363100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-21400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>32000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>52900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>28600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>30500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>38900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>36600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>25500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,43 +1753,46 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>37200</v>
+        <v>-68400</v>
       </c>
       <c r="E29" s="3">
+        <v>65600</v>
+      </c>
+      <c r="F29" s="3">
         <v>2100</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>25000</v>
       </c>
-      <c r="G29" s="3">
-        <v>18000</v>
-      </c>
       <c r="H29" s="3">
+        <v>-46900</v>
+      </c>
+      <c r="I29" s="3">
         <v>24400</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>21400</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>2100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-1000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>21900</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-14900</v>
       </c>
-      <c r="E32" s="3">
-        <v>-3900</v>
-      </c>
       <c r="F32" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G32" s="3">
         <v>-11500</v>
       </c>
-      <c r="G32" s="3">
-        <v>45600</v>
-      </c>
       <c r="H32" s="3">
+        <v>46000</v>
+      </c>
+      <c r="I32" s="3">
         <v>44900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>47000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E33" s="3">
         <v>88100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-30700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-383900</v>
       </c>
-      <c r="G33" s="3">
-        <v>18900</v>
-      </c>
       <c r="H33" s="3">
+        <v>19200</v>
+      </c>
+      <c r="I33" s="3">
         <v>57100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-341700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-19300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>32800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>51900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>50500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>30500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>38900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>36600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>25500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E35" s="3">
         <v>88100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-30700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-383900</v>
       </c>
-      <c r="G35" s="3">
-        <v>18900</v>
-      </c>
       <c r="H35" s="3">
+        <v>19200</v>
+      </c>
+      <c r="I35" s="3">
         <v>57100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-341700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-19300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>32800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>51900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>50500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>30500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>38900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>36600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>25500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44044</v>
+      </c>
+      <c r="E38" s="2">
         <v>43953</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43862</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43771</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43680</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43582</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43491</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43400</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43309</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43218</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43127</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43036</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42945</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42854</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42763</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E41" s="3">
         <v>56400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>40100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>39800</v>
       </c>
-      <c r="G41" s="3">
-        <v>42400</v>
-      </c>
       <c r="H41" s="3">
+        <v>44500</v>
+      </c>
+      <c r="I41" s="3">
         <v>37900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>49500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>53900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>25400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>21200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>30700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,225 +2330,240 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1169500</v>
+      </c>
+      <c r="E43" s="3">
         <v>1244700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1087800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1148200</v>
       </c>
-      <c r="G43" s="3">
-        <v>1065700</v>
-      </c>
       <c r="H43" s="3">
+        <v>1078900</v>
+      </c>
+      <c r="I43" s="3">
         <v>1049300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1094900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1114000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>579700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>635200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>629400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>598700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>525600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>547800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>514900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>534300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2280800</v>
+      </c>
+      <c r="E44" s="3">
         <v>2025700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2134900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2325000</v>
       </c>
-      <c r="G44" s="3">
-        <v>2089400</v>
-      </c>
       <c r="H44" s="3">
+        <v>2190700</v>
+      </c>
+      <c r="I44" s="3">
         <v>2215000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2242700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2405000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1135800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1195900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1140900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1167500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1031700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1042000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>992600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1077900</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>207700</v>
+      </c>
+      <c r="E45" s="3">
         <v>396600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>356700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>337100</v>
       </c>
-      <c r="G45" s="3">
-        <v>370500</v>
-      </c>
       <c r="H45" s="3">
+        <v>471600</v>
+      </c>
+      <c r="I45" s="3">
         <v>333000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>279600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>917100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>50100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>42000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>61500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>51500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>89900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>89000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>100300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>78700</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3704900</v>
+      </c>
+      <c r="E46" s="3">
         <v>3723500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3619500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3850000</v>
       </c>
-      <c r="G46" s="3">
-        <v>3567900</v>
-      </c>
       <c r="H46" s="3">
+        <v>3558900</v>
+      </c>
+      <c r="I46" s="3">
         <v>3635100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3666700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4490000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1788900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1894800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1857200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1838900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1662700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1695000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1638400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1704600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E47" s="3">
         <v>25500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>24300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>25700</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
+      <c r="H47" s="3">
+        <v>34400</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -2469,8 +2574,8 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2490,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2684000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2518300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2532700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2545400</v>
       </c>
-      <c r="G48" s="3">
-        <v>1639300</v>
-      </c>
       <c r="H48" s="3">
+        <v>1896200</v>
+      </c>
+      <c r="I48" s="3">
         <v>1648200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1658000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1544000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>571100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>574200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>578100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>588600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>602100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>603400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>604600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>608300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>989200</v>
+      </c>
+      <c r="E49" s="3">
         <v>975900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>997900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1019400</v>
       </c>
-      <c r="G49" s="3">
-        <v>1483300</v>
-      </c>
       <c r="H49" s="3">
+        <v>1532100</v>
+      </c>
+      <c r="I49" s="3">
         <v>1543700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1535300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1986200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>555700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>559900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>564700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>575200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>579500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>580900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>586100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>594700</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>183000</v>
+      </c>
+      <c r="E52" s="3">
         <v>457700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>508100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>523000</v>
       </c>
-      <c r="G52" s="3">
-        <v>490500</v>
-      </c>
       <c r="H52" s="3">
+        <v>260100</v>
+      </c>
+      <c r="I52" s="3">
         <v>500200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>538300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>567500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>48700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>50000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>49800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>43500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>42300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>41300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>40900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7587000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7700800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7682400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7963500</v>
       </c>
-      <c r="G54" s="3">
-        <v>7181000</v>
-      </c>
       <c r="H54" s="3">
+        <v>7174300</v>
+      </c>
+      <c r="I54" s="3">
         <v>7327200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7398300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8587600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2964500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3078800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3049700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3046300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2886600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2920600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2870000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2943000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1633400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1716300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1462800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1606500</v>
       </c>
-      <c r="G57" s="3">
-        <v>1476900</v>
-      </c>
       <c r="H57" s="3">
+        <v>1532300</v>
+      </c>
+      <c r="I57" s="3">
         <v>1472300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1452600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1485800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>517100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>543600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>627100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>638500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>534600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>547000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>449500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>514400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>83400</v>
+      </c>
+      <c r="E58" s="3">
         <v>33400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>32200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>34500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>112100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>133700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>143600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>730400</v>
-      </c>
-      <c r="K58" s="3">
-        <v>12400</v>
       </c>
       <c r="L58" s="3">
         <v>12400</v>
       </c>
       <c r="M58" s="3">
+        <v>12400</v>
+      </c>
+      <c r="N58" s="3">
         <v>12300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>12200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>12100</v>
-      </c>
-      <c r="P58" s="3">
-        <v>12000</v>
       </c>
       <c r="Q58" s="3">
         <v>12000</v>
       </c>
       <c r="R58" s="3">
+        <v>12000</v>
+      </c>
+      <c r="S58" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>653200</v>
+      </c>
+      <c r="E59" s="3">
         <v>727900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>664000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>639400</v>
       </c>
-      <c r="G59" s="3">
-        <v>520000</v>
-      </c>
       <c r="H59" s="3">
+        <v>464500</v>
+      </c>
+      <c r="I59" s="3">
         <v>496200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>582800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>616600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>169700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>176100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>159300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>164800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>157200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>151800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>144500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2370100</v>
+      </c>
+      <c r="E60" s="3">
         <v>2477600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2159000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2280300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2108900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2102100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2179100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2832800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>699200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>732200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>798700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>815600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>704000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>710800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>606100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>683000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2570300</v>
+      </c>
+      <c r="E61" s="3">
         <v>2687300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2973900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3119900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2927300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3066900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3089900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3239700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>347700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>469700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>430800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>434800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>373500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>457100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>549400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>582400</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1504300</v>
+      </c>
+      <c r="E62" s="3">
         <v>1367900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1450400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1440100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>633800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>627900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>645900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>684800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>71600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>64600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>65400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>87900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>127200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>123500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>124300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>125200</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6442200</v>
+      </c>
+      <c r="E66" s="3">
         <v>6531000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6580400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6837000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5667300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5795000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5912900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6755700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1118500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1266500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1294900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1338200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1204600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1291400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1279800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1390600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>837600</v>
+      </c>
+      <c r="E72" s="3">
         <v>786400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>698300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>729000</v>
       </c>
-      <c r="G72" s="3">
-        <v>1115500</v>
-      </c>
       <c r="H72" s="3">
+        <v>1108900</v>
+      </c>
+      <c r="I72" s="3">
         <v>1096600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1039500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1381200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1400200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1367400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1315600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1265100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1235400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1196500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1159900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1134400</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1144700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1169800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1102100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1126600</v>
       </c>
-      <c r="G76" s="3">
-        <v>1513700</v>
-      </c>
       <c r="H76" s="3">
+        <v>1507000</v>
+      </c>
+      <c r="I76" s="3">
         <v>1532200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1485400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1831900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1846000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1812300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1754700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1708100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1681900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1629200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1590200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1552500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44044</v>
+      </c>
+      <c r="E80" s="2">
         <v>43953</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43862</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43771</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43680</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43582</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43491</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43400</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43309</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43218</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43127</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43036</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42945</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42854</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42763</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E81" s="3">
         <v>88100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-30700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-383900</v>
       </c>
-      <c r="G81" s="3">
-        <v>18900</v>
-      </c>
       <c r="H81" s="3">
+        <v>19200</v>
+      </c>
+      <c r="I81" s="3">
         <v>57100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-341700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-19300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>32800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>51900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>50500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>30500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>38900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>36600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>25500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>67500</v>
+      </c>
+      <c r="E83" s="3">
         <v>69600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>69200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>75100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>77000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>71800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>73200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>24800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>21700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>21800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>22400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>22100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21500</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>21200</v>
       </c>
       <c r="R83" s="3">
         <v>21200</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>21200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E89" s="3">
         <v>413200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>174000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-134900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>207300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>51300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>132900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-107000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>140700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-27900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>36700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-40200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>117700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>66200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>104200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-7300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-54300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-33600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-43500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-41100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-70900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-56800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-63800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-16400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-14100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-13500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>71600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-33800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-23900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-59000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-50500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2140900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-14500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-13300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-16500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-15400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-19300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-87600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-381100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-140400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>156100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-144000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-15500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-693700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2849500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-148100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>31400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-19900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>82600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-110400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-64000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-71800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1800</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E102" s="3">
         <v>16400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-13000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-571000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>601600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-14500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>17100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UNFI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UNFI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>UNFI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,270 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44044</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43953</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43862</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43771</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43680</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43582</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43491</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43400</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43309</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43218</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43127</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43036</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42945</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42854</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42763</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6888100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6672600</v>
+      </c>
+      <c r="F8" s="3">
         <v>7689400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>6667700</v>
       </c>
-      <c r="F8" s="3">
-        <v>6137600</v>
-      </c>
-      <c r="G8" s="3">
-        <v>6019600</v>
-      </c>
       <c r="H8" s="3">
+        <v>6431400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>6296600</v>
+      </c>
+      <c r="J8" s="3">
         <v>7327500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>5962600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>6149200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2868200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2592200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2648900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2528000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2457500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2341000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2369600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2285500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2278400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5897800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5706100</v>
+      </c>
+      <c r="F9" s="3">
         <v>6217600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>5811200</v>
       </c>
-      <c r="F9" s="3">
-        <v>5362100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>5248500</v>
-      </c>
       <c r="H9" s="3">
+        <v>5514100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>5389400</v>
+      </c>
+      <c r="J9" s="3">
         <v>6081500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>5174100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>5387400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2455800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2216300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2240800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2156500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2090300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1972400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2003200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1940600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1929300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>990300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>966500</v>
+      </c>
+      <c r="F10" s="3">
         <v>1471800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>856500</v>
       </c>
-      <c r="F10" s="3">
-        <v>775500</v>
-      </c>
-      <c r="G10" s="3">
-        <v>771100</v>
-      </c>
       <c r="H10" s="3">
+        <v>917300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>907200</v>
+      </c>
+      <c r="J10" s="3">
         <v>1246000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>788500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>761800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>412400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>375900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>408100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>371500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>367200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>368600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>366400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>344900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>349100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,81 +1062,93 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>38500</v>
+      </c>
+      <c r="F14" s="3">
         <v>52300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>22000</v>
       </c>
-      <c r="F14" s="3">
-        <v>5100</v>
-      </c>
-      <c r="G14" s="3">
-        <v>438400</v>
-      </c>
       <c r="H14" s="3">
+        <v>20500</v>
+      </c>
+      <c r="I14" s="3">
+        <v>873200</v>
+      </c>
+      <c r="J14" s="3">
         <v>-26200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-18800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>418000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>68000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>4600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>11200</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>2900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>3900</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3">
         <v>3800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>3900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>3700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>4700</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -1116,11 +1162,11 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6788600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6647000</v>
+      </c>
+      <c r="F17" s="3">
         <v>7506600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>6596000</v>
       </c>
-      <c r="F17" s="3">
-        <v>6132400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>6463600</v>
-      </c>
       <c r="H17" s="3">
+        <v>6413800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>6713100</v>
+      </c>
+      <c r="J17" s="3">
         <v>7170000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>5892900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6557300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2887000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2542500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2566700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2487800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2402400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2279600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2304600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2239200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2225000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>99500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>25600</v>
+      </c>
+      <c r="F18" s="3">
         <v>182800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>71700</v>
       </c>
-      <c r="F18" s="3">
-        <v>5200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-444000</v>
-      </c>
       <c r="H18" s="3">
+        <v>17600</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-416500</v>
+      </c>
+      <c r="J18" s="3">
         <v>157500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>69700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-408100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-18800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>49700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>82200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>40200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>55100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>61400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>65000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>46300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1345,305 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F20" s="3">
         <v>13600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>14900</v>
       </c>
-      <c r="F20" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="G20" s="3">
-        <v>11500</v>
-      </c>
       <c r="H20" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I20" s="3">
+        <v>14200</v>
+      </c>
+      <c r="J20" s="3">
         <v>-46000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-44900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-47000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>6000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>185200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>121300</v>
+      </c>
+      <c r="F21" s="3">
         <v>263900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>156300</v>
       </c>
-      <c r="F21" s="3">
-        <v>68100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-357400</v>
-      </c>
       <c r="H21" s="3">
+        <v>93400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-327200</v>
+      </c>
+      <c r="J21" s="3">
         <v>188600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>96500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-381900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>6800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>71800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>104000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>62500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>78500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>89600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>86000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>67700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>74300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>46100</v>
+      </c>
+      <c r="F22" s="3">
         <v>47100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>48300</v>
       </c>
-      <c r="F22" s="3">
-        <v>48700</v>
-      </c>
-      <c r="G22" s="3">
-        <v>49600</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
+      <c r="H22" s="3">
+        <v>51000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>52000</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3">
         <v>7700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>4100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>4500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>4200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>3700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>3900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>4200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>4400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>73200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F23" s="3">
         <v>149200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>38300</v>
       </c>
-      <c r="F23" s="3">
-        <v>-49900</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-482100</v>
-      </c>
       <c r="H23" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-454400</v>
+      </c>
+      <c r="J23" s="3">
         <v>111500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>24700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-455100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-25600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>46000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>77800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>36500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>52400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>63500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>60300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>42000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F24" s="3">
         <v>27000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>13600</v>
       </c>
-      <c r="F24" s="3">
-        <v>-17700</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-73800</v>
-      </c>
       <c r="H24" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-67000</v>
+      </c>
+      <c r="J24" s="3">
         <v>45200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-8000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-91800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-4300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>14100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>24900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>7900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>21900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>24700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>23700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>16500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>56800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F26" s="3">
         <v>122200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>24800</v>
       </c>
-      <c r="F26" s="3">
-        <v>-32200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-408400</v>
-      </c>
       <c r="H26" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-387400</v>
+      </c>
+      <c r="J26" s="3">
         <v>66400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>32800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-363300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-21400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>32000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>52900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>28600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>30500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>38900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>36600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>25500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F27" s="3">
         <v>120700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>22500</v>
       </c>
-      <c r="F27" s="3">
-        <v>-32800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-408900</v>
-      </c>
       <c r="H27" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-388000</v>
+      </c>
+      <c r="J27" s="3">
         <v>66100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>32700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-363100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-21400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>32000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>52900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>28600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>30500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>38900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>36600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>25500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,49 +1872,55 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F29" s="3">
         <v>-68400</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>65600</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="I29" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-46900</v>
+      </c>
+      <c r="K29" s="3">
+        <v>24400</v>
+      </c>
+      <c r="L29" s="3">
+        <v>21400</v>
+      </c>
+      <c r="M29" s="3">
         <v>2100</v>
       </c>
-      <c r="G29" s="3">
-        <v>25000</v>
-      </c>
-      <c r="H29" s="3">
-        <v>-46900</v>
-      </c>
-      <c r="I29" s="3">
-        <v>24400</v>
-      </c>
-      <c r="J29" s="3">
-        <v>21400</v>
-      </c>
-      <c r="K29" s="3">
-        <v>2100</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-1000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>21900</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +2049,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-13600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-14900</v>
       </c>
-      <c r="F32" s="3">
-        <v>6400</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-11500</v>
-      </c>
       <c r="H32" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="J32" s="3">
         <v>46000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>44900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>47000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F33" s="3">
         <v>52400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>88100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-30700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-383900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>19200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>57100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-341700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-19300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>32800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>51900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>50500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>30500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>38900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>36600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>25500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F35" s="3">
         <v>52400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>88100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-30700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-383900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>19200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>57100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-341700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-19300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>32800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>51900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>50500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>30500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>38900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>36600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>25500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44044</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43953</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43862</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43771</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43680</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43582</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43491</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43400</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43309</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43218</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43127</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43036</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42945</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42854</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42763</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2399,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>49000</v>
+      </c>
+      <c r="F41" s="3">
         <v>47000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>56400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>40100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>39800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>44500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>37900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>49500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>53900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>23300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>21800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>25400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>21200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>15400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>16100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>30700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,243 +2513,273 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1149200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1211200</v>
+      </c>
+      <c r="F43" s="3">
         <v>1169500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1244700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1087800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1148200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1078900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1049300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1094900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1114000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>579700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>635200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>629400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>598700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>525600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>547800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>514900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>534300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2228800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2446600</v>
+      </c>
+      <c r="F44" s="3">
         <v>2280800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>2025700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>2134900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>2325000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>2190700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>2215000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>2242700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2405000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1135800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1195900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1140900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1167500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1031700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1042000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>992600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1077900</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>230300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>233600</v>
+      </c>
+      <c r="F45" s="3">
         <v>207700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>396600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>356700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>337100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>471600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>333000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>279600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>917100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>50100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>42000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>61500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>51500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>89900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>89000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>100300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>78700</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3648700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3940500</v>
+      </c>
+      <c r="F46" s="3">
         <v>3704900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3723500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3619500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3850000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3558900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3635100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3666700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4490000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1788900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1894800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1857200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1838900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1662700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1695000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1638400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1704600</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>19500</v>
+      </c>
+      <c r="F47" s="3">
         <v>25800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>25500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>24300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>25700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>34400</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -2577,11 +2787,11 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2598,114 +2808,132 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2688600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2673400</v>
+      </c>
+      <c r="F48" s="3">
         <v>2684000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2518300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2532700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2545400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1896200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1648200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1658000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1544000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>571100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>574200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>578100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>588600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>602100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>603400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>604600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>608300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>948100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>966300</v>
+      </c>
+      <c r="F49" s="3">
         <v>989200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>975900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>997900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1019400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1532100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1543700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1535300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1986200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>555700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>559900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>564700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>575200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>579500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>580900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>586100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>594700</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +3044,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>185600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>184000</v>
+      </c>
+      <c r="F52" s="3">
         <v>183000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>457700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>508100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>523000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>260100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>500200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>538300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>567500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>48700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>50000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>49800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>43500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>42300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>41300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>40900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7490100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>7783600</v>
+      </c>
+      <c r="F54" s="3">
         <v>7587000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>7700800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>7682400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>7963500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>7174300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>7327200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>7398300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>8587600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2964500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3078800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3049700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3046300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2886600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2920600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2870000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2943000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3271,364 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1618300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1729800</v>
+      </c>
+      <c r="F57" s="3">
         <v>1633400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1716300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1462800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1606500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1532300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1472300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1452600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1485800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>517100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>543600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>627100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>638500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>534600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>547000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>449500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>514400</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>25700</v>
+      </c>
+      <c r="F58" s="3">
         <v>83400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>33400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>32200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>34500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>112100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>133700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>143600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>730400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>12400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>12400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>12300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>12200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>12100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>12000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>12000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>650500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>618700</v>
+      </c>
+      <c r="F59" s="3">
         <v>653200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>727900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>664000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>639400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>464500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>496200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>582800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>616600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>169700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>176100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>159300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>164800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>157200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>151800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>144500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2293600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2374200</v>
+      </c>
+      <c r="F60" s="3">
         <v>2370100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2477600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2159000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2280300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2108900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2102100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2179100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2832800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>699200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>732200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>798700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>815600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>704000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>710800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>606100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>683000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2508800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2758300</v>
+      </c>
+      <c r="F61" s="3">
         <v>2570300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2687300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2973900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>3119900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2927300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>3066900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3089900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3239700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>347700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>469700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>430800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>434800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>373500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>457100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>549400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>582400</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1458600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1503200</v>
+      </c>
+      <c r="F62" s="3">
         <v>1504300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1367900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1450400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1440100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>633800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>627900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>645900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>684800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>71600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>64600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>65400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>87900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>127200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>123500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>124300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>125200</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6259900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6633500</v>
+      </c>
+      <c r="F66" s="3">
         <v>6442200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6531000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6580400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6837000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5667300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5795000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5912900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6755700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1118500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1266500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1294900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1338200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1204600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1291400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1279800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1390600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>886300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>827400</v>
+      </c>
+      <c r="F72" s="3">
         <v>837600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>786400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>698300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>729000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1108900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1096600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1039500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1381200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1400200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1367400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1315600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1265100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1235400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1196500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1159900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1134400</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1230200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1150100</v>
+      </c>
+      <c r="F76" s="3">
         <v>1144700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1169800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1102100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1126600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1507000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1532200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1485400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1831900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1846000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1812300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1754700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1708100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1681900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1629200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1590200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1552500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44044</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43953</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43862</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43771</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43680</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43582</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43491</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43400</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43309</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43218</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43127</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43036</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42945</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42854</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42763</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F81" s="3">
         <v>52400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>88100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-30700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-383900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>19200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>57100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-341700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-19300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>32800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>51900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>50500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>30500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>38900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>36600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>25500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4620,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>66500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>77200</v>
+      </c>
+      <c r="F83" s="3">
         <v>67500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>69600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>69200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>75100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>77000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>71800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>73200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>24800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>21600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>21700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>21800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>22400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>22100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>21500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>21200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>264700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-57700</v>
+      </c>
+      <c r="F89" s="3">
         <v>4300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>413200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>174000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-134900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>207300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>51300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>132900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-107000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>140700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-27900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>36700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-40200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>117700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>66200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>104200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-7300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +5056,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-50100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-54300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-33600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-43500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-41100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-70900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-56800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-63800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-16400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-15000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-14100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-10300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-5300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-16100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-17300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-13500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5229,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="F94" s="3">
         <v>71600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-15300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-33800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-23900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-59000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-50500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-8400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2140900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-14700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-14500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-13300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-4500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-16500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-15400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-19300</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5547,187 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-258800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>95300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-87600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-381100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-140400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>156100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-144000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-15500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-693700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2849500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-148100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>31400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-19900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>82600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-110400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-64000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-71800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
+        <v>100</v>
+      </c>
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>1600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-1800</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-11600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>16400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>4400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-13000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-571000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>601600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-3600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>4200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>5700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-14500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>17100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-5000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UNFI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UNFI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>UNFI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44317</v>
+      </c>
+      <c r="E7" s="2">
         <v>44226</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44044</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43953</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43862</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43771</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43680</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43582</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43491</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43400</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43309</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43218</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43127</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43036</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42945</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42854</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42763</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6619800</v>
+      </c>
+      <c r="E8" s="3">
         <v>6888100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6672600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7689400</v>
       </c>
-      <c r="G8" s="3">
-        <v>6667700</v>
-      </c>
       <c r="H8" s="3">
+        <v>7031700</v>
+      </c>
+      <c r="I8" s="3">
         <v>6431400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6296600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7327500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5962600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6149200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2868200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2592200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2648900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2528000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2457500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2341000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2369600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2285500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2278400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5653000</v>
+      </c>
+      <c r="E9" s="3">
         <v>5897800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5706100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6217600</v>
       </c>
-      <c r="G9" s="3">
-        <v>5811200</v>
-      </c>
       <c r="H9" s="3">
+        <v>5981500</v>
+      </c>
+      <c r="I9" s="3">
         <v>5514100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5389400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6081500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5174100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5387400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2455800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2216300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2240800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2156500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2090300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1972400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2003200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1940600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1929300</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>966800</v>
+      </c>
+      <c r="E10" s="3">
         <v>990300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>966500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1471800</v>
       </c>
-      <c r="G10" s="3">
-        <v>856500</v>
-      </c>
       <c r="H10" s="3">
+        <v>1050200</v>
+      </c>
+      <c r="I10" s="3">
         <v>917300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>907200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1246000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>788500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>761800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>412400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>375900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>408100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>371500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>367200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>368600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>366400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>344900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>349100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,67 +1085,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E14" s="3">
         <v>20400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>38500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>52300</v>
       </c>
-      <c r="G14" s="3">
-        <v>22000</v>
-      </c>
       <c r="H14" s="3">
+        <v>22600</v>
+      </c>
+      <c r="I14" s="3">
         <v>20500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>873200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-26200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-18800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>418000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>68000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>11200</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3900</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1138,20 +1161,20 @@
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3">
         <v>3800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4700</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1168,8 +1191,8 @@
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6530200</v>
+      </c>
+      <c r="E17" s="3">
         <v>6788600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6647000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7506600</v>
       </c>
-      <c r="G17" s="3">
-        <v>6596000</v>
-      </c>
       <c r="H17" s="3">
+        <v>6907400</v>
+      </c>
+      <c r="I17" s="3">
         <v>6413800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6713100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7170000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5892900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6557300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2887000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2542500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2566700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2487800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2402400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2279600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2304600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2239200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2225000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>89600</v>
+      </c>
+      <c r="E18" s="3">
         <v>99500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>25600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>182800</v>
       </c>
-      <c r="G18" s="3">
-        <v>71700</v>
-      </c>
       <c r="H18" s="3">
+        <v>124300</v>
+      </c>
+      <c r="I18" s="3">
         <v>17600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-416500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>157500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>69700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-408100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-18800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>49700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>82200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>40200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>55100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>61400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>65000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>46300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,149 +1380,156 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E20" s="3">
         <v>19100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>18500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>13600</v>
       </c>
-      <c r="G20" s="3">
-        <v>14900</v>
-      </c>
       <c r="H20" s="3">
+        <v>18200</v>
+      </c>
+      <c r="I20" s="3">
         <v>6600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>14200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-46000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-44900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-47000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>6000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>174300</v>
+      </c>
+      <c r="E21" s="3">
         <v>185200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>121300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>263900</v>
       </c>
-      <c r="G21" s="3">
-        <v>156300</v>
-      </c>
       <c r="H21" s="3">
+        <v>212100</v>
+      </c>
+      <c r="I21" s="3">
         <v>93400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-327200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>188600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>96500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-381900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>71800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>104000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>62500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>78500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>89600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>86000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>67700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>74300</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E22" s="3">
         <v>45500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>46100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>47100</v>
       </c>
-      <c r="G22" s="3">
-        <v>48300</v>
-      </c>
       <c r="H22" s="3">
+        <v>50800</v>
+      </c>
+      <c r="I22" s="3">
         <v>51000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>52000</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1497,153 +1537,162 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3">
         <v>7700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E23" s="3">
         <v>73200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>149200</v>
       </c>
-      <c r="G23" s="3">
-        <v>38300</v>
-      </c>
       <c r="H23" s="3">
+        <v>91600</v>
+      </c>
+      <c r="I23" s="3">
         <v>-26800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-454400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>111500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>24700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-455100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-25600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>46000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>77800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>36500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>52400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>63500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>60300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>42000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E24" s="3">
         <v>16400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>27000</v>
       </c>
-      <c r="G24" s="3">
-        <v>13600</v>
-      </c>
       <c r="H24" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I24" s="3">
         <v>-12800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-67000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>45200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-8000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-91800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-4300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>24900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>21900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>24700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>23700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>16500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E26" s="3">
         <v>56800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>122200</v>
       </c>
-      <c r="G26" s="3">
-        <v>24800</v>
-      </c>
       <c r="H26" s="3">
+        <v>94400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-14000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-387400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>66400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>32800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-363300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-21400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>32000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>52900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>28600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>30500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>38900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>36600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>25500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E27" s="3">
         <v>55200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>120700</v>
       </c>
-      <c r="G27" s="3">
-        <v>22500</v>
-      </c>
       <c r="H27" s="3">
+        <v>92200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-14600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-388000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>66100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>32700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-363100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-21400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>32000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>52900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>28600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>30500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>38900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>36600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>25500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,52 +1936,55 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E29" s="3">
         <v>3800</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>1300</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-68400</v>
       </c>
-      <c r="G29" s="3">
-        <v>65600</v>
-      </c>
       <c r="H29" s="3">
+        <v>24300</v>
+      </c>
+      <c r="I29" s="3">
         <v>-16100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>4000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-46900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>24400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>21400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>2100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-1000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>21900</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-19100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-18500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-13600</v>
       </c>
-      <c r="G32" s="3">
-        <v>-14900</v>
-      </c>
       <c r="H32" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="I32" s="3">
         <v>-6600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-14200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>46000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>44900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>47000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-6000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E33" s="3">
         <v>59000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>52400</v>
       </c>
-      <c r="G33" s="3">
-        <v>88100</v>
-      </c>
       <c r="H33" s="3">
+        <v>116500</v>
+      </c>
+      <c r="I33" s="3">
         <v>-30700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-383900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>19200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>57100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-341700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-19300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>32800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>51900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>50500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>30500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>38900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>36600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>25500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E35" s="3">
         <v>59000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>52400</v>
       </c>
-      <c r="G35" s="3">
-        <v>88100</v>
-      </c>
       <c r="H35" s="3">
+        <v>116500</v>
+      </c>
+      <c r="I35" s="3">
         <v>-30700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-383900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>19200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>57100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-341700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-19300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>32800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>51900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>50500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>30500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>38900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>36600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>25500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44317</v>
+      </c>
+      <c r="E38" s="2">
         <v>44226</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44044</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43953</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43862</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43771</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43680</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43582</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43491</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43400</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43309</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43218</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43127</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43036</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42945</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42854</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42763</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E41" s="3">
         <v>40500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>49000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>47000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>56400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>40100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>39800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>44500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>37900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>49500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>53900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>23300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>21800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>25400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>21200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>16100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>30700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,270 +2609,285 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1116900</v>
+      </c>
+      <c r="E43" s="3">
         <v>1149200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1211200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1169500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1244700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1087800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1148200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1078900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1049300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1094900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1114000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>579700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>635200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>629400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>598700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>525600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>547800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>514900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>534300</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2293900</v>
+      </c>
+      <c r="E44" s="3">
         <v>2228800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2446600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2280800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2025700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2134900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2325000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2190700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2215000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2242700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2405000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1135800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1195900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1140900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1167500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1031700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1042000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>992600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1077900</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>135500</v>
+      </c>
+      <c r="E45" s="3">
         <v>230300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>233600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>207700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>396600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>356700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>337100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>471600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>333000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>279600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>917100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>50100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>42000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>61500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>51500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>89900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>89000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>100300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>78700</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3585800</v>
+      </c>
+      <c r="E46" s="3">
         <v>3648700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3940500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3704900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3723500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3619500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3850000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3558900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3635100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3666700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4490000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1788900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1894800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1857200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1838900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1662700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1695000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1638400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1704600</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E47" s="3">
         <v>19100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>19500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>25800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>25500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>24300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>25700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>34400</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
@@ -2793,8 +2898,8 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2814,126 +2919,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2803100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2688600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2673400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2684000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2518300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2532700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2545400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1896200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1648200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1658000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1544000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>571100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>574200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>578100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>588600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>602100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>603400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>604600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>608300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>930100</v>
+      </c>
+      <c r="E49" s="3">
         <v>948100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>966300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>989200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>975900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>997900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1019400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1532100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1543700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1535300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1986200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>555700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>559900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>564700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>575200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>579500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>580900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>586100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>594700</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>184600</v>
+      </c>
+      <c r="E52" s="3">
         <v>185600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>184000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>183000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>457700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>508100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>523000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>260100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>500200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>538300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>567500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>48700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>50000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>49800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>43500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>42300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>41300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>40900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7520800</v>
+      </c>
+      <c r="E54" s="3">
         <v>7490100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7783600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7587000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7700800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7682400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7963500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7174300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7327200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7398300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8587600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2964500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3078800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3049700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3046300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2886600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2920600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2870000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2943000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,362 +3403,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1618300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1729800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1633400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1716300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1462800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1606500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1532300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1472300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1452600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1485800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>517100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>543600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>627100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>638500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>534600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>547000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>449500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>514400</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E58" s="3">
         <v>24800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>25700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>83400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>33400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>32200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>34500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>112100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>133700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>143600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>730400</v>
-      </c>
-      <c r="N58" s="3">
-        <v>12400</v>
       </c>
       <c r="O58" s="3">
         <v>12400</v>
       </c>
       <c r="P58" s="3">
+        <v>12400</v>
+      </c>
+      <c r="Q58" s="3">
         <v>12300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>12200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>12100</v>
-      </c>
-      <c r="S58" s="3">
-        <v>12000</v>
       </c>
       <c r="T58" s="3">
         <v>12000</v>
       </c>
       <c r="U58" s="3">
+        <v>12000</v>
+      </c>
+      <c r="V58" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>641200</v>
+      </c>
+      <c r="E59" s="3">
         <v>650500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>618700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>653200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>727900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>664000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>639400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>464500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>496200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>582800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>616600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>169700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>176100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>159300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>164800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>157200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>151800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>144500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2264900</v>
+      </c>
+      <c r="E60" s="3">
         <v>2293600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2374200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2370100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2477600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2159000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2280300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2108900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2102100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2179100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2832800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>699200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>732200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>798700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>815600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>704000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>710800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>606100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>683000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2447200</v>
+      </c>
+      <c r="E61" s="3">
         <v>2508800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2758300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2570300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2687300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2973900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3119900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2927300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3066900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3089900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3239700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>347700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>469700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>430800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>434800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>373500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>457100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>549400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>582400</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1507700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1458600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1503200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1504300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1367900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1450400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1440100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>633800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>627900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>645900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>684800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>71600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>64600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>65400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>87900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>127200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>123500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>124300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>125200</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6218400</v>
+      </c>
+      <c r="E66" s="3">
         <v>6259900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6633500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6442200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6531000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6580400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6837000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5667300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5795000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5912900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6755700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1118500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1266500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1294900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1338200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1204600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1291400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1279800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1390600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>934900</v>
+      </c>
+      <c r="E72" s="3">
         <v>886300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>827400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>837600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>786400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>698300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>729000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1108900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1096600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1039500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1381200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1400200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1367400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1315600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1265100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1235400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1196500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1159900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1134400</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1302400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1230200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1150100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1144700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1169800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1102100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1126600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1507000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1532200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1485400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1831900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1846000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1812300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1754700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1708100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1681900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1629200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1590200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1552500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44317</v>
+      </c>
+      <c r="E80" s="2">
         <v>44226</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44044</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43953</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43862</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43771</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43680</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43582</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43491</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43400</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43309</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43218</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43127</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43036</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42945</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42854</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42763</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E81" s="3">
         <v>59000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>52400</v>
       </c>
-      <c r="G81" s="3">
-        <v>88100</v>
-      </c>
       <c r="H81" s="3">
+        <v>116500</v>
+      </c>
+      <c r="I81" s="3">
         <v>-30700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-383900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>19200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>57100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-341700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-19300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>32800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>51900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>50500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>30500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>38900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>36600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>25500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>66400</v>
+      </c>
+      <c r="E83" s="3">
         <v>66500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>77200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>67500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>69600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>69200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>75100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>77000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>71800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>73200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>24800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>21600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>21700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>22400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>22100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>21500</v>
-      </c>
-      <c r="T83" s="3">
-        <v>21200</v>
       </c>
       <c r="U83" s="3">
         <v>21200</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>21200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>129400</v>
+      </c>
+      <c r="E89" s="3">
         <v>264700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-57700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>413200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>174000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-134900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>207300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>51300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>132900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-107000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>140700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-27900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>36700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-40200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>117700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>66200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>104200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-7300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-73900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-50100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-41400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-54300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-33600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-43500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-41100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-70900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-56800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-63800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-16400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-14100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-16100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-17300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-13500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-60500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-35500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>71600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-33800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-23900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-59000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-50500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2140900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-14700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-14500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-16500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-15400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-19300</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-70200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-258800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>95300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-87600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-381100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-140400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>156100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-144000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-15500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-693700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2849500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-148100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>31400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>82600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-110400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-64000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-71800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5621,113 +5870,119 @@
         <v>200</v>
       </c>
       <c r="E101" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F101" s="3">
         <v>100</v>
       </c>
       <c r="G101" s="3">
+        <v>100</v>
+      </c>
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1800</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-11600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>16400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-13000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-571000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>601600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-14500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>17100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-5000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UNFI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UNFI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>UNFI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44317</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44226</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44044</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43953</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43862</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43771</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43680</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43582</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43491</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43400</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43309</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43218</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43127</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43036</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42945</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42854</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42763</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6769400</v>
+      </c>
+      <c r="E8" s="3">
         <v>6619800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6888100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6672600</v>
       </c>
-      <c r="G8" s="3">
-        <v>7689400</v>
-      </c>
       <c r="H8" s="3">
+        <v>6799300</v>
+      </c>
+      <c r="I8" s="3">
         <v>7031700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6431400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6296600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7327500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5962600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6149200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2868200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2592200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2648900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2528000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2457500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2341000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2369600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2285500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2278400</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5754100</v>
+      </c>
+      <c r="E9" s="3">
         <v>5653000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5897800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5706100</v>
       </c>
-      <c r="G9" s="3">
-        <v>6217600</v>
-      </c>
       <c r="H9" s="3">
+        <v>5785100</v>
+      </c>
+      <c r="I9" s="3">
         <v>5981500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5514100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5389400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6081500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5174100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5387400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2455800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2216300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2240800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2156500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2090300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1972400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2003200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1940600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1929300</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1015300</v>
+      </c>
+      <c r="E10" s="3">
         <v>966800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>990300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>966500</v>
       </c>
-      <c r="G10" s="3">
-        <v>1471800</v>
-      </c>
       <c r="H10" s="3">
+        <v>1014200</v>
+      </c>
+      <c r="I10" s="3">
         <v>1050200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>917300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>907200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1246000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>788500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>761800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>412400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>375900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>408100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>371500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>367200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>368600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>366400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>344900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>349100</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,70 +1105,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E14" s="3">
         <v>12900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>20400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>38500</v>
       </c>
-      <c r="G14" s="3">
-        <v>52300</v>
-      </c>
       <c r="H14" s="3">
+        <v>58600</v>
+      </c>
+      <c r="I14" s="3">
         <v>22600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>20500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>873200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-26200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-18800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>418000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>68000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>11200</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3900</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1164,20 +1187,20 @@
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3">
         <v>3800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4700</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
@@ -1194,8 +1217,8 @@
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6703200</v>
+      </c>
+      <c r="E17" s="3">
         <v>6530200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6788600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6647000</v>
       </c>
-      <c r="G17" s="3">
-        <v>7506600</v>
-      </c>
       <c r="H17" s="3">
+        <v>6706600</v>
+      </c>
+      <c r="I17" s="3">
         <v>6907400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6413800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6713100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7170000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5892900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6557300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2887000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2542500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2566700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2487800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2402400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2279600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2304600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2239200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2225000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>66200</v>
+      </c>
+      <c r="E18" s="3">
         <v>89600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>99500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>25600</v>
       </c>
-      <c r="G18" s="3">
-        <v>182800</v>
-      </c>
       <c r="H18" s="3">
+        <v>92700</v>
+      </c>
+      <c r="I18" s="3">
         <v>124300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>17600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-416500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>157500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>69700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-408100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-18800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>49700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>82200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>40200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>55100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>61400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>65000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>46300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,158 +1414,165 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E20" s="3">
         <v>18400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>19100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>18500</v>
       </c>
-      <c r="G20" s="3">
-        <v>13600</v>
-      </c>
       <c r="H20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I20" s="3">
         <v>18200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>6600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>14200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-46000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-44900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-47000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>6000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>162200</v>
+      </c>
+      <c r="E21" s="3">
         <v>174300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>185200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>121300</v>
       </c>
-      <c r="G21" s="3">
-        <v>263900</v>
-      </c>
       <c r="H21" s="3">
+        <v>166200</v>
+      </c>
+      <c r="I21" s="3">
         <v>212100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>93400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-327200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>188600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>96500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-381900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>71800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>104000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>62500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>78500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>89600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>86000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>67700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>74300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E22" s="3">
         <v>42800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>45500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>46100</v>
       </c>
-      <c r="G22" s="3">
-        <v>47100</v>
-      </c>
       <c r="H22" s="3">
+        <v>51200</v>
+      </c>
+      <c r="I22" s="3">
         <v>50800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>51000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>52000</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1540,159 +1580,168 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3">
         <v>7700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E23" s="3">
         <v>65100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>73200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2000</v>
       </c>
-      <c r="G23" s="3">
-        <v>149200</v>
-      </c>
       <c r="H23" s="3">
+        <v>47500</v>
+      </c>
+      <c r="I23" s="3">
         <v>91600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-26800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-454400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>111500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>24700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-455100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-25600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>46000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>77800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>36500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>52400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>63500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>60300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>42000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E24" s="3">
         <v>16800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>16400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1000</v>
       </c>
-      <c r="G24" s="3">
-        <v>27000</v>
-      </c>
       <c r="H24" s="3">
+        <v>30600</v>
+      </c>
+      <c r="I24" s="3">
         <v>-2800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-12800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-67000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>45200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-8000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-91800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-4300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>24900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>21900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>24700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>23700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>16500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E26" s="3">
         <v>48300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>56800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
-        <v>122200</v>
-      </c>
       <c r="H26" s="3">
+        <v>17000</v>
+      </c>
+      <c r="I26" s="3">
         <v>94400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-387400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>66400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>32800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-363300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-21400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>32000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>52900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>28600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>30500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>38900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>36600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>25500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>43300</v>
+      </c>
+      <c r="E27" s="3">
         <v>46900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>55200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2300</v>
       </c>
-      <c r="G27" s="3">
-        <v>120700</v>
-      </c>
       <c r="H27" s="3">
+        <v>15400</v>
+      </c>
+      <c r="I27" s="3">
         <v>92200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-388000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>66100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>32700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-363100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-21400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>32000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>52900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>28600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>30500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>38900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>36600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>25500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,55 +1997,58 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E29" s="3">
         <v>1700</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>3800</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>1300</v>
       </c>
-      <c r="G29" s="3">
-        <v>-68400</v>
-      </c>
       <c r="H29" s="3">
+        <v>37100</v>
+      </c>
+      <c r="I29" s="3">
         <v>24300</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-16100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>4000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-46900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>24400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>21400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>2100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>21900</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2192,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-18400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-19100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-18500</v>
       </c>
-      <c r="G32" s="3">
-        <v>-13600</v>
-      </c>
       <c r="H32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-18200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-6600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-14200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>46000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>44900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>47000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-6000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E33" s="3">
         <v>48600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>59000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
-        <v>52400</v>
-      </c>
       <c r="H33" s="3">
+        <v>52500</v>
+      </c>
+      <c r="I33" s="3">
         <v>116500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-30700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-383900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>19200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>57100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-341700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-19300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>32800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>51900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>50500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>30500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>38900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>36600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>25500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E35" s="3">
         <v>48600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>59000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
-        <v>52400</v>
-      </c>
       <c r="H35" s="3">
+        <v>52500</v>
+      </c>
+      <c r="I35" s="3">
         <v>116500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-30700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-383900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>19200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>57100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-341700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-19300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>32800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>51900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>50500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>30500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>38900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>36600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>25500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44317</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44226</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44044</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43953</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43862</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43771</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43680</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43582</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43491</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43400</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43309</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43218</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43127</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43036</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42945</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42854</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42763</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2574,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E41" s="3">
         <v>39500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>40500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>49000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>47000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>56400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>40100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>39800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>44500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>37900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>49500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>53900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>23300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>21800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>25400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>21200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>16100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>30700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,285 +2702,300 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1110000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1116900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1149200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1211200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1169500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1244700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1087800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1148200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1078900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1049300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1094900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1114000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>579700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>635200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>629400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>598700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>525600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>547800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>514900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>534300</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2247000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2293900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2228800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2446600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2280800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2025700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2134900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2325000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2190700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2215000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2242700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2405000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1135800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1195900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1140900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1167500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1031700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1042000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>992600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1077900</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>152000</v>
+      </c>
+      <c r="E45" s="3">
         <v>135500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>230300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>233600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>207700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>396600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>356700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>337100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>471600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>333000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>279600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>917100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>50100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>42000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>61500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>51500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>89900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>89000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>100300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>78700</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3550000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3585800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3648700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3940500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3704900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3723500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3619500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3850000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3558900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3635100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3666700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4490000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1788900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1894800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1857200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1838900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1662700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1695000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1638400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1704600</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E47" s="3">
         <v>17200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>19100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>19500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>25800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>25500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>24300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>25700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>34400</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
@@ -2901,8 +3006,8 @@
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2922,132 +3027,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2848000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2803100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2688600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2673400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2684000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2518300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2532700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2545400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1896200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1648200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1658000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1544000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>571100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>574200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>578100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>588600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>602100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>603400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>604600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>608300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>911000</v>
+      </c>
+      <c r="E49" s="3">
         <v>930100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>948100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>966300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>989200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>975900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>997900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1019400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1532100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1543700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1535300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1986200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>555700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>559900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>564700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>575200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>579500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>580900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>586100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>594700</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3287,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>201000</v>
+      </c>
+      <c r="E52" s="3">
         <v>184600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>185600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>184000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>183000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>457700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>508100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>523000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>260100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>500200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>538300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>567500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>48700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>50000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>49800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>43500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>42300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>41300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>40900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7525000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7520800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7490100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7783600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7587000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7700800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7682400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7963500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7174300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7327200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7398300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8587600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2964500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3078800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3049700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3046300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2886600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2920600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2870000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2943000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,380 +3534,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1644000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1618300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1729800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1633400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1716300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1462800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1606500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1532300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1472300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1452600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1485800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>517100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>543600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>627100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>638500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>534600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>547000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>449500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>514400</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E58" s="3">
         <v>23700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>24800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>25700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>83400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>33400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>32200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>34500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>112100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>133700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>143600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>730400</v>
-      </c>
-      <c r="O58" s="3">
-        <v>12400</v>
       </c>
       <c r="P58" s="3">
         <v>12400</v>
       </c>
       <c r="Q58" s="3">
+        <v>12400</v>
+      </c>
+      <c r="R58" s="3">
         <v>12300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>12200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>12100</v>
-      </c>
-      <c r="T58" s="3">
-        <v>12000</v>
       </c>
       <c r="U58" s="3">
         <v>12000</v>
       </c>
       <c r="V58" s="3">
+        <v>12000</v>
+      </c>
+      <c r="W58" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>723000</v>
+      </c>
+      <c r="E59" s="3">
         <v>641200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>650500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>618700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>653200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>727900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>664000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>639400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>464500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>496200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>582800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>616600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>169700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>176100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>159300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>164800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>157200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>151800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>144500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2487000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2264900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2293600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2374200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2370100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2477600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2159000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2280300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2108900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2102100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2179100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2832800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>699200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>732200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>798700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>815600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>704000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>710800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>606100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>683000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2210000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2447200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2508800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2758300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2570300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2687300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2973900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3119900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2927300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3066900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3089900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3239700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>347700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>469700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>430800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>434800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>373500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>457100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>549400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>582400</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1314000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1507700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1458600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1503200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1504300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1367900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1450400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1440100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>633800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>627900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>645900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>684800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>71600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>64600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>65400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>87900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>127200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>123500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>124300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>125200</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6010000</v>
+      </c>
+      <c r="E66" s="3">
         <v>6218400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6259900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6633500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6442200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6531000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6580400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6837000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5667300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5795000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5912900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6755700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1118500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1266500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1294900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1338200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1204600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1291400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1279800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1390600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>978000</v>
+      </c>
+      <c r="E72" s="3">
         <v>934900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>886300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>827400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>837600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>786400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>698300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>729000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1108900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1096600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1039500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1381200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1400200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1367400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1315600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1265100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1235400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1196500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1159900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1134400</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1515000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1302400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1230200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1150100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1144700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1169800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1102100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1126600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1507000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1532200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1485400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1831900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1846000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1812300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1754700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1708100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1681900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1629200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1590200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1552500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44317</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44226</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44044</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43953</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43862</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43771</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43680</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43582</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43491</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43400</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43309</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43218</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43127</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43036</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42945</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42854</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42763</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E81" s="3">
         <v>48600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>59000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
-        <v>52400</v>
-      </c>
       <c r="H81" s="3">
+        <v>52500</v>
+      </c>
+      <c r="I81" s="3">
         <v>116500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-30700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-383900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>19200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>57100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-341700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-19300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>32800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>51900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>50500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>30500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>38900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>36600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>25500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5019,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>74900</v>
+      </c>
+      <c r="E83" s="3">
         <v>66400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>66500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>77200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>67500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>69600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>69200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>75100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>77000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>71800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>73200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>24800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>21600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>21800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>22400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>22100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>21500</v>
-      </c>
-      <c r="U83" s="3">
-        <v>21200</v>
       </c>
       <c r="V83" s="3">
         <v>21200</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>21200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>277600</v>
+      </c>
+      <c r="E89" s="3">
         <v>129400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>264700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-57700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>413200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>174000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-134900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>207300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>51300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>132900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-107000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>140700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-27900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>36700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-40200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>117700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>66200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>104200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-7300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5499,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-144500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-73900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-50100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-41400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-54300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-33600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-43500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-41100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-70900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-56800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-63800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-16400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-14100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-16100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-17300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-13500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-126300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-60500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-14700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-35500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>71600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-33800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-23900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-59000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-50500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2140900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-14700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-14500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-13300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-16500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-15400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-19300</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,190 +6042,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-150300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-70200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-258800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>95300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-87600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-381100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-140400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>156100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-144000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-15500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-693700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2849500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-148100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>31400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-19900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>82600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-110400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-64000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-71800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E101" s="3">
         <v>200</v>
       </c>
       <c r="F101" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G101" s="3">
         <v>100</v>
       </c>
       <c r="H101" s="3">
+        <v>100</v>
+      </c>
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1800</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-8600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-11600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>16400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-13000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-571000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>601600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>5700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-14500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>17100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-5000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UNFI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UNFI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>UNFI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,322 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44499</v>
+      </c>
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44317</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44226</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44044</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43953</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43862</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43771</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43680</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43582</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43491</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43400</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43309</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43218</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43127</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43036</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42945</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42854</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42763</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7416000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6997000</v>
+      </c>
+      <c r="F8" s="3">
         <v>6769400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>6619800</v>
       </c>
-      <c r="F8" s="3">
-        <v>6888100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>6672600</v>
-      </c>
       <c r="H8" s="3">
+        <v>6900000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>6684000</v>
+      </c>
+      <c r="J8" s="3">
         <v>6799300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>7031700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>6431400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>6296600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>7327500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>5962600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>6149200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2868200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2592200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2648900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2528000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2457500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2341000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2369600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2285500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>2278400</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6341000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5955000</v>
+      </c>
+      <c r="F9" s="3">
         <v>5754100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>5653000</v>
       </c>
-      <c r="F9" s="3">
-        <v>5897800</v>
-      </c>
-      <c r="G9" s="3">
-        <v>5706100</v>
-      </c>
       <c r="H9" s="3">
+        <v>5905000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>5714000</v>
+      </c>
+      <c r="J9" s="3">
         <v>5785100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>5981500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>5514100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>5389400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>6081500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>5174100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>5387400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2455800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2216300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2240800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>2156500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2090300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1972400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>2003200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1940600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>1929300</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1075000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1042000</v>
+      </c>
+      <c r="F10" s="3">
         <v>1015300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>966800</v>
       </c>
-      <c r="F10" s="3">
-        <v>990300</v>
-      </c>
-      <c r="G10" s="3">
-        <v>966500</v>
-      </c>
       <c r="H10" s="3">
+        <v>995000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>970000</v>
+      </c>
+      <c r="J10" s="3">
         <v>1014200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1050200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>917300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>907200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1246000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>788500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>761800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>412400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>375900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>408100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>371500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>367200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>368600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>366400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>344900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>349100</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +1004,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1043,8 +1071,14 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,73 +1142,85 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F14" s="3">
         <v>-8900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>12900</v>
       </c>
-      <c r="F14" s="3">
-        <v>20400</v>
-      </c>
-      <c r="G14" s="3">
-        <v>38500</v>
-      </c>
       <c r="H14" s="3">
+        <v>19000</v>
+      </c>
+      <c r="I14" s="3">
+        <v>39000</v>
+      </c>
+      <c r="J14" s="3">
         <v>58600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>22600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>20500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>873200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-26200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-18800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>418000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>68000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>4600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>11200</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>2900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>3900</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1190,23 +1236,23 @@
       <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3">
         <v>3800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>3900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>3700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>4700</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
@@ -1220,11 +1266,11 @@
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1238,8 +1284,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1312,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7297000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6890000</v>
+      </c>
+      <c r="F17" s="3">
         <v>6703200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>6530200</v>
       </c>
-      <c r="F17" s="3">
-        <v>6788600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>6647000</v>
-      </c>
       <c r="H17" s="3">
+        <v>6798000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>6658000</v>
+      </c>
+      <c r="J17" s="3">
         <v>6706600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>6907400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6413800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>6713100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>7170000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>5892900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>6557300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2887000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2542500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2566700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2487800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2402400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2279600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2304600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2239200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2225000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>107000</v>
+      </c>
+      <c r="F18" s="3">
         <v>66200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>89600</v>
       </c>
-      <c r="F18" s="3">
-        <v>99500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>25600</v>
-      </c>
       <c r="H18" s="3">
+        <v>102000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>26000</v>
+      </c>
+      <c r="J18" s="3">
         <v>92700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>124300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>17600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-416500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>157500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>69700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-408100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-18800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>49700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>82200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>40200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>55100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>61400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>65000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>46300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,333 +1481,365 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F20" s="3">
         <v>21100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>18400</v>
       </c>
-      <c r="F20" s="3">
-        <v>19100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>18500</v>
-      </c>
       <c r="H20" s="3">
+        <v>56800</v>
+      </c>
+      <c r="I20" s="3">
+        <v>56200</v>
+      </c>
+      <c r="J20" s="3">
         <v>6000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>18200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>6600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>14200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-46000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-44900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-47000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>6000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>185000</v>
+      </c>
+      <c r="F21" s="3">
         <v>162200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>174300</v>
       </c>
-      <c r="F21" s="3">
-        <v>185200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>121300</v>
-      </c>
       <c r="H21" s="3">
+        <v>225300</v>
+      </c>
+      <c r="I21" s="3">
+        <v>159400</v>
+      </c>
+      <c r="J21" s="3">
         <v>166200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>212100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>93400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-327200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>188600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>96500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-381900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>6800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>71800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>104000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>62500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>78500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>89600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>86000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>67700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>74300</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>40000</v>
+      </c>
+      <c r="F22" s="3">
         <v>40600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>42800</v>
       </c>
-      <c r="F22" s="3">
-        <v>45500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>46100</v>
-      </c>
       <c r="H22" s="3">
+        <v>83800</v>
+      </c>
+      <c r="I22" s="3">
+        <v>83200</v>
+      </c>
+      <c r="J22" s="3">
         <v>51200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>50800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>51000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>52000</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="3">
         <v>7700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>4100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>4500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>4200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>3700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>3900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>4200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>4400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>76000</v>
+      </c>
+      <c r="F23" s="3">
         <v>46700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>65100</v>
       </c>
-      <c r="F23" s="3">
-        <v>73200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-2000</v>
-      </c>
       <c r="H23" s="3">
+        <v>75000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J23" s="3">
         <v>47500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>91600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-26800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-454400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>111500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>24700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-455100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-25600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>46000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>77800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>36500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>52400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>63500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>60300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>42000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F24" s="3">
         <v>1800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>16800</v>
       </c>
-      <c r="F24" s="3">
-        <v>16400</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>17000</v>
+      </c>
+      <c r="I24" s="3">
         <v>-1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>30600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-2800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-12800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-67000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>45200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-8000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-91800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-4300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>14100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>24900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>7900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>21900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>24700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>23700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>16500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1903,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>77000</v>
+      </c>
+      <c r="F26" s="3">
         <v>44900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>48300</v>
       </c>
-      <c r="F26" s="3">
-        <v>56800</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-1000</v>
-      </c>
       <c r="H26" s="3">
+        <v>58000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>17000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>94400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-14000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-387400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>66400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>32800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-363300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-21400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>32000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>52900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>28600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>30500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>38900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>36600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>25500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>76000</v>
+      </c>
+      <c r="F27" s="3">
         <v>43300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>46900</v>
       </c>
-      <c r="F27" s="3">
-        <v>55200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-2300</v>
-      </c>
       <c r="H27" s="3">
+        <v>56000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J27" s="3">
         <v>15400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>92200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-14600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-388000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>66100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>32700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-363100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-21400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>32000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>52900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>28600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>30500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>38900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>36600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>25500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,61 +2116,67 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-800</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>1700</v>
       </c>
-      <c r="F29" s="3">
-        <v>3800</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
+        <v>6800</v>
+      </c>
+      <c r="I29" s="3">
         <v>1300</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>37100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>24300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-16100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>4000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-46900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>24400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>21400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>2100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>-1000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>21900</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2065,8 +2187,14 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2258,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,138 +2329,156 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-21100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-18400</v>
       </c>
-      <c r="F32" s="3">
-        <v>-19100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-18500</v>
-      </c>
       <c r="H32" s="3">
+        <v>-56800</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-56200</v>
+      </c>
+      <c r="J32" s="3">
         <v>-6000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-18200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-6600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-14200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>46000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>44900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>47000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-6000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>76000</v>
+      </c>
+      <c r="F33" s="3">
         <v>42500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>48600</v>
       </c>
-      <c r="F33" s="3">
-        <v>59000</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-1000</v>
-      </c>
       <c r="H33" s="3">
+        <v>62800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>300</v>
+      </c>
+      <c r="J33" s="3">
         <v>52500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>116500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-30700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-383900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>19200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>57100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-341700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-19300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>32800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>51900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>50500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>30500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>38900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>36600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>25500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2542,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>76000</v>
+      </c>
+      <c r="F35" s="3">
         <v>42500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>48600</v>
       </c>
-      <c r="F35" s="3">
-        <v>59000</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-1000</v>
-      </c>
       <c r="H35" s="3">
+        <v>62800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>300</v>
+      </c>
+      <c r="J35" s="3">
         <v>52500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>116500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-30700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-383900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>19200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>57100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-341700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-19300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>32800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>51900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>50500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>30500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>38900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>36600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>25500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44499</v>
+      </c>
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44317</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44226</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44044</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43953</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43862</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43771</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43680</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43582</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43491</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43400</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43309</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43218</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43127</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43036</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42945</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42854</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42763</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2720,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,73 +2747,81 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>46000</v>
+      </c>
+      <c r="F41" s="3">
         <v>41000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>39500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>40500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>49000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>47000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>56400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>40100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>39800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>44500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>37900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>49500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>53900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>23300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>21800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>25400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>21200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>15400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>16100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>30700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,303 +2885,333 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1248000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1255000</v>
+      </c>
+      <c r="F43" s="3">
         <v>1110000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1116900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1149200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1211200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1169500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1244700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1087800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1148200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1078900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1049300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1094900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1114000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>579700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>635200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>629400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>598700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>525600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>547800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>514900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>534300</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2426000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2537000</v>
+      </c>
+      <c r="F44" s="3">
         <v>2247000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>2293900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>2228800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>2446600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>2280800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>2025700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>2134900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2325000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>2190700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>2215000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>2242700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>2405000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1135800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1195900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1140900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1167500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1031700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>1042000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>992600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>1077900</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>181000</v>
+      </c>
+      <c r="F45" s="3">
         <v>152000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>135500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>230300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>233600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>207700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>396600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>356700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>337100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>471600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>333000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>279600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>917100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>50100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>42000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>61500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>51500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>89900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>89000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>100300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>78700</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3864000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4019000</v>
+      </c>
+      <c r="F46" s="3">
         <v>3550000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3585800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3648700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3940500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3704900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3723500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3619500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3850000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3558900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3635100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3666700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4490000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1788900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1894800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1857200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1838900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1662700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1695000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1638400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1704600</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E47" s="3">
         <v>15000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G47" s="3">
         <v>17200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>19100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>19500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>25800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>25500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>24300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>25700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>34400</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
@@ -3009,11 +3219,11 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3030,138 +3240,156 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2861000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2864000</v>
+      </c>
+      <c r="F48" s="3">
         <v>2848000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2803100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2688600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2673400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2684000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2518300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2532700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2545400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1896200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1648200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1658000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1544000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>571100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>574200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>578100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>588600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>602100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>603400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>604600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>608300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>875000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>893000</v>
+      </c>
+      <c r="F49" s="3">
         <v>911000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>930100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>948100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>966300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>989200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>975900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>997900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1019400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1532100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1543700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1535300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1986200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>555700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>559900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>564700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>575200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>579500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>580900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>586100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>594700</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3453,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,73 +3524,85 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>188000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>208000</v>
+      </c>
+      <c r="F52" s="3">
         <v>201000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>184600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>185600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>184000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>183000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>457700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>508100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>523000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>260100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>500200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>538300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>567500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>48700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>50000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>49800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>43500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>42300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>41300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>40900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3666,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7801000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>7999000</v>
+      </c>
+      <c r="F54" s="3">
         <v>7525000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>7520800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>7490100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>7783600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>7587000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>7700800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>7682400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>7963500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>7174300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>7327200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>7398300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>8587600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2964500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3078800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3049700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3046300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2886600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>2920600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2870000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>2943000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3768,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,398 +3795,436 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1737000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1896000</v>
+      </c>
+      <c r="F57" s="3">
         <v>1644000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1600000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1618300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1729800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1633400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1716300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1462800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1606500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1532300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1472300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1452600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1485800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>517100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>543600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>627100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>638500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>534600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>547000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>449500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>514400</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>121000</v>
+      </c>
+      <c r="F58" s="3">
         <v>120000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>23700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>24800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>25700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>83400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>33400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>32200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>34500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>112100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>133700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>143600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>730400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>12400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>12400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>12300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>12200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>12100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>12000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>12000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>696000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>674000</v>
+      </c>
+      <c r="F59" s="3">
         <v>723000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>641200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>650500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>618700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>653200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>727900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>664000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>639400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>464500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>496200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>582800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>616600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>169700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>176100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>159300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>164800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>157200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>151800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>144500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2555000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2691000</v>
+      </c>
+      <c r="F60" s="3">
         <v>2487000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2264900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2293600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2374200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2370100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2477600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2159000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2280300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2108900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2102100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2179100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2832800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>699200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>732200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>798700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>815600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>704000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>710800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>606100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>683000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2339000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2408000</v>
+      </c>
+      <c r="F61" s="3">
         <v>2210000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2447200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2508800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2758300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2570300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2687300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2973900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3119900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2927300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>3066900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>3089900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>3239700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>347700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>469700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>430800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>434800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>373500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>457100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>549400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>582400</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1224000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1313000</v>
+      </c>
+      <c r="F62" s="3">
         <v>1314000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1507700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1458600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1503200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1504300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1367900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1450400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1440100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>633800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>627900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>645900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>684800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>71600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>64600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>65400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>87900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>127200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>123500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>124300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>125200</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4288,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4359,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4430,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6117000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6410000</v>
+      </c>
+      <c r="F66" s="3">
         <v>6010000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6218400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6259900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6633500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6442200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>6531000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6580400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6837000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5667300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>5795000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>5912900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6755700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1118500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1266500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1294900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1338200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1204600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1291400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1279800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1390600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4532,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4599,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4670,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4741,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4812,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1120000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1054000</v>
+      </c>
+      <c r="F72" s="3">
         <v>978000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>934900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>886300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>827400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>837600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>786400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>698300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>729000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1108900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1096600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1039500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1381200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1400200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1367400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1315600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1265100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1235400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1196500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>1159900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>1134400</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4954,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +5025,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +5096,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1684000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1589000</v>
+      </c>
+      <c r="F76" s="3">
         <v>1515000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1302400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1230200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1150100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1144700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1169800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1102100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1126600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1507000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1532200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1485400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1831900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1846000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1812300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1754700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1708100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1681900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1629200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1590200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1552500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5238,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44499</v>
+      </c>
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44317</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44226</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44044</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43953</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43862</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43771</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43680</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43582</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43491</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43400</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43309</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43218</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43127</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43036</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42945</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42854</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42763</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>76000</v>
+      </c>
+      <c r="F81" s="3">
         <v>42500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>48600</v>
       </c>
-      <c r="F81" s="3">
-        <v>59000</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-1000</v>
-      </c>
       <c r="H81" s="3">
+        <v>62800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>300</v>
+      </c>
+      <c r="J81" s="3">
         <v>52500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>116500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-30700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-383900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>19200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>57100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-341700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-19300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>32800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>51900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>50500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>30500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>38900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>36600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>25500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,73 +5416,81 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>69000</v>
+      </c>
+      <c r="F83" s="3">
         <v>74900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>66400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>66500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>77200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>67500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>69600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>69200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>75100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>77000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>71800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>73200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>24800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>21600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>21700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>21800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>22400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>22100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>21500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>21200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5554,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5625,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5696,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5767,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5838,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="F89" s="3">
         <v>277600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>129400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>264700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-57700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>4300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>413200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>174000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-134900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>207300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>51300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>132900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-107000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>140700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-27900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>36700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-40200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>117700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>66200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>104200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-7300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +5940,81 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-144500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-73900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-50100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-41400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-54300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-33600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-43500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-41100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-70900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-56800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-63800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-16400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-14100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-10300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-5300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-16100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-17300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-13500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +6078,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +6149,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-126300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-60500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-14700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-35500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>71600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-15300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-33800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-23900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-59000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-50500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-8400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2140900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-14500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-13300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-4500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-8800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-16500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-15400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-19300</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6251,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6318,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6389,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6460,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,199 +6531,223 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>167000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-150300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-70200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-258800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>95300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-87600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-381100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-140400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>156100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-144000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-15500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-693700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>2849500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-148100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>31400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-19900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>82600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-110400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-64000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-71800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>1600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-1800</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F102" s="3">
         <v>1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-8600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>2100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-11600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>16400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>4400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-13000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-571000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>601600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-3600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>4200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>5700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-14500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>17100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-5000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UNFI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UNFI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>UNFI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,322 +665,334 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44590</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44499</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44317</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44226</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44044</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43953</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43862</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43771</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43680</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43582</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43491</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43400</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43309</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43218</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43127</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43036</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42945</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42854</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42763</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7242000</v>
+      </c>
+      <c r="E8" s="3">
         <v>7416000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6997000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6769400</v>
       </c>
-      <c r="G8" s="3">
-        <v>6619800</v>
-      </c>
       <c r="H8" s="3">
+        <v>6631000</v>
+      </c>
+      <c r="I8" s="3">
         <v>6900000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6684000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6799300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7031700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6431400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6296600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7327500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5962600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6149200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2868200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2592200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2648900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2528000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2457500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2341000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2369600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2285500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2278400</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6230000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6341000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5955000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5754100</v>
       </c>
-      <c r="G9" s="3">
-        <v>5653000</v>
-      </c>
       <c r="H9" s="3">
+        <v>5661000</v>
+      </c>
+      <c r="I9" s="3">
         <v>5905000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5714000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5785100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5981500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5514100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5389400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6081500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5174100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5387400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2455800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2216300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2240800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2156500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2090300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1972400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2003200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1940600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1929300</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1012000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1075000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1042000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1015300</v>
       </c>
-      <c r="G10" s="3">
-        <v>966800</v>
-      </c>
       <c r="H10" s="3">
+        <v>970000</v>
+      </c>
+      <c r="I10" s="3">
         <v>995000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>970000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1014200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1050200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>917300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>907200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1246000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>788500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>761800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>412400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>375900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>408100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>371500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>367200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>368600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>366400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>344900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>349100</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1006,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1077,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1148,79 +1164,85 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E14" s="3">
         <v>10000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-8900</v>
       </c>
-      <c r="G14" s="3">
-        <v>12900</v>
-      </c>
       <c r="H14" s="3">
+        <v>24000</v>
+      </c>
+      <c r="I14" s="3">
         <v>19000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>39000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>58600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>22600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>20500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>873200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-26200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-18800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>418000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>68000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>11200</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3900</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1242,20 +1264,20 @@
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3">
         <v>3800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4700</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>8</v>
@@ -1272,8 +1294,8 @@
       <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1290,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1314,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7120000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7297000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6890000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6703200</v>
       </c>
-      <c r="G17" s="3">
-        <v>6530200</v>
-      </c>
       <c r="H17" s="3">
+        <v>6541000</v>
+      </c>
+      <c r="I17" s="3">
         <v>6798000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6658000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6706600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6907400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6413800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6713100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7170000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5892900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6557300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2887000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2542500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2566700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2487800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2402400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2279600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2304600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2239200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2225000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E18" s="3">
         <v>119000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>107000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>66200</v>
       </c>
-      <c r="G18" s="3">
-        <v>89600</v>
-      </c>
       <c r="H18" s="3">
+        <v>90000</v>
+      </c>
+      <c r="I18" s="3">
         <v>102000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>26000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>92700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>124300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>17600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-416500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>157500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>69700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-408100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-18800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>49700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>82200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>40200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>55100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>61400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>65000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>46300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1483,185 +1515,192 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E20" s="3">
         <v>12000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>9000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>21100</v>
       </c>
-      <c r="G20" s="3">
-        <v>18400</v>
-      </c>
       <c r="H20" s="3">
+        <v>53200</v>
+      </c>
+      <c r="I20" s="3">
         <v>56800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>56200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>18200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>14200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-46000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-44900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-47000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>6000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E21" s="3">
         <v>200000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>185000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>162200</v>
       </c>
-      <c r="G21" s="3">
-        <v>174300</v>
-      </c>
       <c r="H21" s="3">
+        <v>209600</v>
+      </c>
+      <c r="I21" s="3">
         <v>225300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>159400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>166200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>212100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>93400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-327200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>188600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>96500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-381900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>6800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>71800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>104000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>62500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>78500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>89600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>86000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>67700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>74300</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E22" s="3">
         <v>38000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>40000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>40600</v>
       </c>
-      <c r="G22" s="3">
-        <v>42800</v>
-      </c>
       <c r="H22" s="3">
+        <v>77200</v>
+      </c>
+      <c r="I22" s="3">
         <v>83800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>83200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>51200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>50800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>51000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>52000</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
@@ -1669,177 +1708,186 @@
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="3">
         <v>7700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>3900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>4200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>4400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E23" s="3">
         <v>93000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>76000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>46700</v>
       </c>
-      <c r="G23" s="3">
-        <v>65100</v>
-      </c>
       <c r="H23" s="3">
+        <v>66000</v>
+      </c>
+      <c r="I23" s="3">
         <v>75000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>47500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>91600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-26800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-454400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>111500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>24700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-455100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-25600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>46000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>77800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>36500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>52400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>63500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>60300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>42000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E24" s="3">
         <v>25000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1800</v>
       </c>
-      <c r="G24" s="3">
-        <v>16800</v>
-      </c>
       <c r="H24" s="3">
+        <v>16000</v>
+      </c>
+      <c r="I24" s="3">
         <v>17000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>30600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-12800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-67000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>45200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-8000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-91800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-4300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>14100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>24900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>21900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>24700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>23700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>16500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1909,8 +1957,11 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1918,141 +1969,147 @@
         <v>68000</v>
       </c>
       <c r="E26" s="3">
+        <v>68000</v>
+      </c>
+      <c r="F26" s="3">
         <v>77000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>44900</v>
       </c>
-      <c r="G26" s="3">
-        <v>48300</v>
-      </c>
       <c r="H26" s="3">
+        <v>50000</v>
+      </c>
+      <c r="I26" s="3">
         <v>58000</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>17000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>94400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-14000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-387400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>66400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>32800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-363300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-21400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>32000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>52900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>28600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>30500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>38900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>36600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>25500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E27" s="3">
         <v>66000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>76000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>43300</v>
       </c>
-      <c r="G27" s="3">
-        <v>46900</v>
-      </c>
       <c r="H27" s="3">
+        <v>48000</v>
+      </c>
+      <c r="I27" s="3">
         <v>56000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>15400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>92200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-14600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-388000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>66100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>32700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-363100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-21400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>32000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>52900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>28600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>30500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>38900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>36600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>25500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2122,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2134,52 +2194,52 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-800</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>1700</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>6800</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>1300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>37100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>24300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-16100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>4000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-46900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>24400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>21400</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>2100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>800</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-1000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>21900</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2193,8 +2253,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2264,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2335,150 +2401,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-12000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-9000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-21100</v>
       </c>
-      <c r="G32" s="3">
-        <v>-18400</v>
-      </c>
       <c r="H32" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="I32" s="3">
         <v>-56800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-56200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-6000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-18200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-14200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>46000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>44900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>47000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-6000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E33" s="3">
         <v>66000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>76000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>42500</v>
       </c>
-      <c r="G33" s="3">
-        <v>48600</v>
-      </c>
       <c r="H33" s="3">
+        <v>49700</v>
+      </c>
+      <c r="I33" s="3">
         <v>62800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>52500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>116500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-30700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-383900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>19200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>57100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-341700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-19300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>32800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>51900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>50500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>30500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>38900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>36600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>25500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2548,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E35" s="3">
         <v>66000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>76000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>42500</v>
       </c>
-      <c r="G35" s="3">
-        <v>48600</v>
-      </c>
       <c r="H35" s="3">
+        <v>49700</v>
+      </c>
+      <c r="I35" s="3">
         <v>62800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>52500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>116500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-30700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-383900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>19200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>57100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-341700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-19300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>32800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>51900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>50500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>30500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>38900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>36600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>25500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44590</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44499</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44317</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44226</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44044</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43953</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43862</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43771</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43680</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43582</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43491</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43400</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43309</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43218</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43127</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43036</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42945</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42854</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42763</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2722,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2749,79 +2834,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E41" s="3">
         <v>45000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>46000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>41000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>39500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>40500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>49000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>47000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>56400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>40100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>39800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>44500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>37900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>49500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>53900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>23300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>21800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>25400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>21200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>15400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>16100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>30700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2891,292 +2980,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1235000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1248000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1255000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1110000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1116900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1149200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1211200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1169500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1244700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1087800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1148200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1078900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1049300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1094900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1114000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>579700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>635200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>629400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>598700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>525600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>547800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>514900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>534300</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2559000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2426000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2537000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2247000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2293900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2228800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2446600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2280800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2025700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2134900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2325000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2190700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2215000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2242700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2405000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1135800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1195900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1140900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1167500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1031700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1042000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>992600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1077900</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>138000</v>
+      </c>
+      <c r="E45" s="3">
         <v>145000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>181000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>152000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>135500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>230300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>233600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>207700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>396600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>356700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>337100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>471600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>333000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>279600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>917100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>50100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>42000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>61500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>51500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>89900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>89000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>100300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>78700</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3980000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3864000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4019000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3550000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3585800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3648700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3940500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3704900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3723500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3619500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3850000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3558900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3635100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3666700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4490000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1788900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1894800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1857200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1838900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1662700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1695000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1638400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1704600</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3184,37 +3288,37 @@
         <v>13000</v>
       </c>
       <c r="E47" s="3">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="F47" s="3">
         <v>15000</v>
       </c>
       <c r="G47" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H47" s="3">
         <v>17200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>19100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>19500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>25800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>25500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>24300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>25700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>34400</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
@@ -3225,8 +3329,8 @@
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3246,150 +3350,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2830000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2861000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2864000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2848000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2803100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2688600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2673400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2684000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2518300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2532700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2545400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1896200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1648200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1658000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1544000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>571100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>574200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>578100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>588600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>602100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>603400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>604600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>608300</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>857000</v>
+      </c>
+      <c r="E49" s="3">
         <v>875000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>893000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>911000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>930100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>948100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>966300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>989200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>975900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>997900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1019400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1532100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1543700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1535300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1986200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>555700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>559900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>564700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>575200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>579500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>580900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>586100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>594700</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3459,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3530,79 +3646,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>198000</v>
+      </c>
+      <c r="E52" s="3">
         <v>188000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>208000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>201000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>184600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>185600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>184000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>183000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>457700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>508100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>523000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>260100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>500200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>538300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>567500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>48700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>50000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>49800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>43500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>42300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>41300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>40900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3672,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7878000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7801000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7999000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7525000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7520800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7490100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7783600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7587000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7700800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7682400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7963500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7174300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7327200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7398300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8587600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2964500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3078800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3049700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3046300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2886600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2920600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2870000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2943000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3770,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3797,434 +3926,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1715000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1737000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1896000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1644000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1600000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1618300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1729800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1633400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1716300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1462800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1606500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1532300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1472300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1452600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1485800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>517100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>543600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>627100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>638500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>534600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>547000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>449500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>514400</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E58" s="3">
         <v>122000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>121000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>120000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>23700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>24800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>25700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>83400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>33400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>32200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>34500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>112100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>133700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>143600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>730400</v>
-      </c>
-      <c r="R58" s="3">
-        <v>12400</v>
       </c>
       <c r="S58" s="3">
         <v>12400</v>
       </c>
       <c r="T58" s="3">
+        <v>12400</v>
+      </c>
+      <c r="U58" s="3">
         <v>12300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>12200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>12100</v>
-      </c>
-      <c r="W58" s="3">
-        <v>12000</v>
       </c>
       <c r="X58" s="3">
         <v>12000</v>
       </c>
       <c r="Y58" s="3">
+        <v>12000</v>
+      </c>
+      <c r="Z58" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>648000</v>
+      </c>
+      <c r="E59" s="3">
         <v>696000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>674000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>723000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>641200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>650500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>618700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>653200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>727900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>664000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>639400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>464500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>496200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>582800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>616600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>169700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>176100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>159300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>164800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>157200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>151800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>144500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2389000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2555000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2691000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2487000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2264900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2293600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2374200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2370100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2477600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2159000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2280300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2108900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2102100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2179100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2832800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>699200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>732200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>798700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>815600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>704000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>710800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>606100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>683000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2404000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2339000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2408000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2210000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2447200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2508800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2758300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2570300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2687300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2973900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3119900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2927300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3066900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3089900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3239700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>347700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>469700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>430800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>434800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>373500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>457100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>549400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>582400</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1300000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1224000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1313000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1314000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1507700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1458600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1503200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1504300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1367900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1450400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1440100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>633800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>627900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>645900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>684800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>71600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>64600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>65400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>87900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>127200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>123500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>124300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>125200</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4294,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4365,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4436,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6092000</v>
+      </c>
+      <c r="E66" s="3">
         <v>6117000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6410000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6010000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6218400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6259900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6633500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6442200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6531000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6580400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6837000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5667300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5795000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5912900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6755700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1118500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1266500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1294900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1338200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1204600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1291400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1279800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1390600</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4534,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4605,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4676,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4747,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4818,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1187000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1120000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1054000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>978000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>934900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>886300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>827400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>837600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>786400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>698300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>729000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1108900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1096600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1039500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1381200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1400200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1367400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1315600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1265100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1235400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1196500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1159900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1134400</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4960,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5031,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5102,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1786000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1684000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1589000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1515000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1302400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1230200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1150100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1144700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1169800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1102100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1126600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1507000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1532200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1485400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1831900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1846000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1812300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1754700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1708100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1681900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1629200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1590200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1552500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5244,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44590</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44499</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44317</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44226</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44044</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43953</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43862</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43771</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43680</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43582</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43491</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43400</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43309</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43218</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43127</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43036</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42945</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42854</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42763</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E81" s="3">
         <v>66000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>76000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>42500</v>
       </c>
-      <c r="G81" s="3">
-        <v>48600</v>
-      </c>
       <c r="H81" s="3">
+        <v>49700</v>
+      </c>
+      <c r="I81" s="3">
         <v>62800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>52500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>116500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-30700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-383900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>19200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>57100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-341700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-19300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>32800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>51900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>50500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>30500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>38900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>36600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>25500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5418,79 +5615,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>69000</v>
+        <v>72000</v>
       </c>
       <c r="E83" s="3">
         <v>69000</v>
       </c>
       <c r="F83" s="3">
+        <v>69000</v>
+      </c>
+      <c r="G83" s="3">
         <v>74900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>66400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>66500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>77200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>67500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>69600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>69200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>75100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>77000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>71800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>73200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>24800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>21600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>21700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>21800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>22400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>22100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>21500</v>
-      </c>
-      <c r="X83" s="3">
-        <v>21200</v>
       </c>
       <c r="Y83" s="3">
         <v>21200</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>21200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5560,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5631,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5702,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5773,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5844,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="E89" s="3">
         <v>124000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-81000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>277600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>129400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>264700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-57700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>413200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>174000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-134900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>207300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>51300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>132900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-107000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>140700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-27900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>36700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-40200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>117700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>66200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>104200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-7300</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5942,79 +6161,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-50000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-56000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-144500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-73900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-50100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-41400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-54300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-33600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-43500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-41100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-70900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-56800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-63800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-16400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-14100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-10300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-16100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-17300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-13500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6084,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6155,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-48000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-81000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-126300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-60500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-14700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-35500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>71600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-33800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-23900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-59000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-50500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2140900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-14700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-14500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-13300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-8800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-16500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-15400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-19300</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6253,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6324,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6395,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6466,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6537,79 +6779,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-98000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-76000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>167000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-150300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-70200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-258800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>95300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-87600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-381100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-140400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>156100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-144000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-15500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-693700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2849500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-148100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>31400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-19900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>82600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-110400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-64000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-71800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6620,134 +6868,140 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>600</v>
-      </c>
-      <c r="G101" s="3">
-        <v>200</v>
       </c>
       <c r="H101" s="3">
         <v>200</v>
       </c>
       <c r="I101" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J101" s="3">
         <v>100</v>
       </c>
       <c r="K101" s="3">
+        <v>100</v>
+      </c>
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>5000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-11600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>16400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-13000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-571000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>601600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>5700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-14500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>17100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-5000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UNFI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UNFI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>UNFI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,347 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44590</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44499</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44317</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44226</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44044</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43953</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43862</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43771</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43680</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43582</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43491</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43400</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43309</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43218</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43127</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43036</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42945</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42854</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42763</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7273000</v>
+      </c>
+      <c r="E8" s="3">
         <v>7242000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7416000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6997000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6769400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6631000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6900000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6684000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6799300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7031700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6431400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6296600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7327500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5962600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6149200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2868200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2592200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2648900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2528000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2457500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2341000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2369600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2285500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2278400</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6220000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6230000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6341000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5955000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5754100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5661000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5905000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5714000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5785100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5981500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5514100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5389400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6081500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5174100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5387400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2455800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2216300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2240800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2156500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2090300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1972400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2003200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1940600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1929300</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1053000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1012000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1075000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1042000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1015300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>970000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>995000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>970000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1014200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1050200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>917300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>907200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1246000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>788500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>761800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>412400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>375900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>408100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>371500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>367200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>368600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>366400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>344900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>349100</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,8 +1032,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1093,8 +1107,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,82 +1184,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E14" s="3">
         <v>9000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>10000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-8900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>24000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>19000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>39000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>58600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>22600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>20500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>873200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-26200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>418000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>68000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>11200</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>3900</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1267,20 +1290,20 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3">
         <v>3800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4700</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
@@ -1297,8 +1320,8 @@
       <c r="T15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1315,8 +1338,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1366,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7205000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7120000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7297000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6890000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6703200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6541000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6798000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6658000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6706600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6907400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6413800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6713100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7170000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5892900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6557300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2887000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2542500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2566700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2487800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2402400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2279600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2304600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2239200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2225000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E18" s="3">
         <v>122000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>119000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>107000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>66200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>90000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>102000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>26000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>92700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>124300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>17600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-416500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>157500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>69700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-408100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-18800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>49700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>82200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>40200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>55100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>61400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>65000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>46300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,194 +1549,201 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E20" s="3">
         <v>11000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>12000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>9000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>21100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>53200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>56800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>56200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>18200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>14200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-46000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-44900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-47000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>6000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>164000</v>
+      </c>
+      <c r="E21" s="3">
         <v>205000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>200000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>185000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>162200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>209600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>225300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>159400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>166200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>212100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>93400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-327200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>188600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>96500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-381900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>71800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>104000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>62500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>78500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>89600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>86000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>67700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>74300</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E22" s="3">
         <v>36000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>38000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>40000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>40600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>77200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>83800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>83200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>51200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>50800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>51000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>52000</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
@@ -1711,183 +1751,192 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="3">
         <v>7700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>3700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>3900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>4200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>4400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E23" s="3">
         <v>97000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>93000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>76000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>46700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>66000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>75000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>47500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>91600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-26800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-454400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>111500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>24700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-455100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-25600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>46000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>77800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>36500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>52400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>63500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>60300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>42000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E24" s="3">
         <v>29000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>25000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>16000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>17000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>30600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-12800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-67000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>45200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-91800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-4300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>14100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>24900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>7900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>21900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>24700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>23700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>16500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>68000</v>
+        <v>42000</v>
       </c>
       <c r="E26" s="3">
         <v>68000</v>
       </c>
       <c r="F26" s="3">
+        <v>68000</v>
+      </c>
+      <c r="G26" s="3">
         <v>77000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>44900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>50000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>58000</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>17000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>94400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-387400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>66400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>32800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-363300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-21400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>32000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>52900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>28600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>30500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>38900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>36600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>25500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E27" s="3">
         <v>67000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>66000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>76000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>43300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>48000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>56000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>92200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-388000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>66100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>32700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-363100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-21400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>32000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>52900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>28600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>30500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>38900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>36600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>25500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2197,52 +2258,52 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-800</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>1700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>6800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>1300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>37100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>24300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-16100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>4000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-46900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>24400</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>21400</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>2100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>800</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-1000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>21900</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,156 +2471,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-11000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-12000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-9000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-21100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-53200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-56800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-56200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-18200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-14200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>46000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>44900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>47000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-6000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E33" s="3">
         <v>67000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>66000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>76000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>42500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>49700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>62800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>52500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>116500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-30700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-383900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>19200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>57100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-341700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-19300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>32800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>51900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>50500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>30500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>38900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>36600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>25500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E35" s="3">
         <v>67000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>66000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>76000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>42500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>49700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>62800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>52500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>116500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-30700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-383900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>19200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>57100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-341700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-19300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>32800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>51900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>50500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>30500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>38900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>36600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>25500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44590</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44499</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44317</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44226</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44044</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43953</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43862</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43771</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43680</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43582</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43491</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43400</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43309</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43218</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43127</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43036</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42945</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42854</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42763</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,82 +2921,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E41" s="3">
         <v>48000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>45000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>46000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>41000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>39500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>40500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>49000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>47000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>56400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>40100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>39800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>44500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>37900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>49500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>53900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>23300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>21800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>25400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>21200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>15400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>16100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>30700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,345 +3073,360 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1220000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1235000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1248000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1255000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1110000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1116900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1149200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1211200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1169500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1244700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1087800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1148200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1078900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1049300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1094900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1114000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>579700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>635200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>629400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>598700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>525600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>547800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>514900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>534300</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2355000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2559000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2426000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2537000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2247000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2293900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2228800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2446600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2280800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2025700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2134900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2325000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2190700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2215000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2242700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2405000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1135800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1195900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1140900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1167500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1031700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1042000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>992600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1077900</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>178000</v>
+      </c>
+      <c r="E45" s="3">
         <v>138000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>145000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>181000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>152000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>135500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>230300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>233600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>207700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>396600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>356700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>337100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>471600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>333000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>279600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>917100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>50100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>42000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>61500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>51500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>89900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>89000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>100300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>78700</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3797000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3980000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3864000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4019000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3550000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3585800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3648700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3940500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3704900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3723500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3619500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3850000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3558900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3635100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3666700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4490000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1788900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1894800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1857200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1838900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1662700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1695000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1638400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1704600</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="E47" s="3">
         <v>13000</v>
       </c>
       <c r="F47" s="3">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="G47" s="3">
         <v>15000</v>
       </c>
       <c r="H47" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I47" s="3">
         <v>17200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>19100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>19500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>25800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>25500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>24300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>25700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>34400</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>8</v>
@@ -3332,8 +3437,8 @@
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -3353,156 +3458,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2866000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2830000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2861000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2864000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2848000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2803100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2688600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2673400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2684000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2518300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2532700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2545400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1896200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1648200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1658000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1544000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>571100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>574200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>578100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>588600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>602100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>603400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>604600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>608300</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>839000</v>
+      </c>
+      <c r="E49" s="3">
         <v>857000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>875000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>893000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>911000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>930100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>948100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>966300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>989200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>975900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>997900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1019400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1532100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1543700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1535300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1986200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>555700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>559900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>564700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>575200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>579500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>580900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>586100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>594700</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,82 +3766,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E52" s="3">
         <v>198000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>188000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>208000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>201000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>184600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>185600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>184000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>183000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>457700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>508100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>523000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>260100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>500200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>538300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>567500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>48700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>50000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>49800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>43500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>42300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>41300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>40900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3920,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7628000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7878000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7801000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7999000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7525000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7520800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7490100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7783600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7587000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7700800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7682400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7963500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7174300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7327200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7398300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8587600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2964500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3078800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3049700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3046300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2886600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2920600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2870000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2943000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,156 +4057,163 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1742000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1715000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1737000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1896000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1644000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1600000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1618300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1729800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1633400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1716300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1462800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1606500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1532300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1472300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1452600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1485800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>517100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>543600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>627100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>638500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>534600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>547000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>449500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>514400</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E58" s="3">
         <v>26000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>122000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>121000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>120000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>23700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>24800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>25700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>83400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>33400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>32200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>34500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>112100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>133700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>143600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>730400</v>
-      </c>
-      <c r="S58" s="3">
-        <v>12400</v>
       </c>
       <c r="T58" s="3">
         <v>12400</v>
       </c>
       <c r="U58" s="3">
+        <v>12400</v>
+      </c>
+      <c r="V58" s="3">
         <v>12300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>12200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>12100</v>
-      </c>
-      <c r="X58" s="3">
-        <v>12000</v>
       </c>
       <c r="Y58" s="3">
         <v>12000</v>
       </c>
       <c r="Z58" s="3">
+        <v>12000</v>
+      </c>
+      <c r="AA58" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4084,295 +4221,307 @@
         <v>648000</v>
       </c>
       <c r="E59" s="3">
+        <v>648000</v>
+      </c>
+      <c r="F59" s="3">
         <v>696000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>674000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>723000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>641200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>650500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>618700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>653200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>727900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>664000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>639400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>464500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>496200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>582800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>616600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>169700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>176100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>159300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>164800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>157200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>151800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>144500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2417000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2389000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2555000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2691000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2487000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2264900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2293600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2374200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2370100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2477600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2159000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2280300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2108900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2102100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2179100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2832800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>699200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>732200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>798700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>815600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>704000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>710800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>606100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>683000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2132000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2404000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2339000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2408000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2210000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2447200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2508800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2758300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2570300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2687300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2973900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3119900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2927300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3066900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3089900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3239700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>347700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>469700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>430800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>434800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>373500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>457100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>549400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>582400</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1288000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1300000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1224000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1313000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1314000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1507700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1458600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1503200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1504300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1367900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1450400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1440100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>633800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>627900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>645900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>684800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>71600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>64600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>65400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>87900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>127200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>123500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>124300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>125200</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4748,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5838000</v>
+      </c>
+      <c r="E66" s="3">
         <v>6092000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6117000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6410000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6010000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6218400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6259900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6633500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6442200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6531000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6580400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6837000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5667300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5795000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5912900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6755700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1118500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1266500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1294900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1338200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1204600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1291400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1279800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1390600</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5162,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1226000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1187000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1120000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1054000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>978000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>934900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>886300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>827400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>837600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>786400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>698300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>729000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1108900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1096600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1039500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1381200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1400200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1367400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1315600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1265100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1235400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1196500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1159900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1134400</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5470,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1790000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1786000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1684000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1589000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1515000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1302400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1230200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1150100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1144700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1169800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1102100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1126600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1507000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1532200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1485400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1831900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1846000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1812300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1754700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1708100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1681900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1629200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1590200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1552500</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44590</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44499</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44317</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44226</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44044</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43953</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43862</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43771</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43680</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43582</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43491</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43400</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43309</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43218</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43127</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43036</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42945</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42854</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42763</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E81" s="3">
         <v>67000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>66000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>76000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>42500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>49700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>62800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>52500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>116500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-30700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-383900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>19200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>57100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-341700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-19300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>32800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>51900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>50500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>30500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>38900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>36600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>25500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,82 +5814,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E83" s="3">
         <v>72000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>69000</v>
       </c>
       <c r="F83" s="3">
         <v>69000</v>
       </c>
       <c r="G83" s="3">
+        <v>69000</v>
+      </c>
+      <c r="H83" s="3">
         <v>74900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>66400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>66500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>77200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>67500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>69600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>69200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>75100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>77000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>71800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>73200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>24800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>21600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>21700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>21800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>22400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>22100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>21500</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>21200</v>
       </c>
       <c r="Z83" s="3">
         <v>21200</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>21200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>362000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-74000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>124000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-81000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>277600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>129400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>264700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-57700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>413200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>174000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-134900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>207300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>51300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>132900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-107000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>140700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-27900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>36700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-40200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>117700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>66200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>104200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-7300</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,82 +6382,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-93000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-52000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-50000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-56000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-144500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-73900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-50100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-41400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-54300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-33600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-43500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-41100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-70900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-56800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-63800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-16400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-15000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-14100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-10300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-5300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-16100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-17300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-13500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6611,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="E94" s="3">
         <v>174000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-48000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-81000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-126300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-60500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-14700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-35500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>71600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-15300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-33800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-23900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-59000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-50500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2140900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-14700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-14500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-13300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-8800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-16500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-15400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-19300</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,82 +7025,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-272000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-98000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-76000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>167000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-150300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-70200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-258800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>95300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-87600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-381100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-140400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>156100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-144000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-693700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2849500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-148100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>31400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-19900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>82600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-110400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-64000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-71800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6871,137 +7120,143 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>600</v>
-      </c>
-      <c r="H101" s="3">
-        <v>200</v>
       </c>
       <c r="I101" s="3">
         <v>200</v>
       </c>
       <c r="J101" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K101" s="3">
         <v>100</v>
       </c>
       <c r="L101" s="3">
+        <v>100</v>
+      </c>
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1800</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2000</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>5000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-11600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>16400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-571000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>601600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>5700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-14500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>17100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-5000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UNFI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UNFI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>UNFI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,347 +665,373 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44863</v>
+      </c>
+      <c r="F7" s="2">
         <v>44772</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44590</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44499</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44317</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44226</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44044</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43953</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43862</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43771</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43680</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43582</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43491</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43400</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43309</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43218</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43127</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43036</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42945</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42854</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42763</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7816000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7532000</v>
+      </c>
+      <c r="F8" s="3">
         <v>7273000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>7242000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>7416000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>6997000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>6769400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>6631000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>6900000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>6684000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>6799300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>7031700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>6431400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>6296600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>7327500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>5962600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>6149200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2868200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2592200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2648900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2528000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>2457500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>2341000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>2369600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>2285500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>2278400</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6747000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6436000</v>
+      </c>
+      <c r="F9" s="3">
         <v>6220000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>6230000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>6341000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>5955000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>5754100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>5661000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>5905000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>5714000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>5785100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>5981500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>5514100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>5389400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>6081500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>5174100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>5387400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2455800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>2216300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>2240800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>2156500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>2090300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>1972400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>2003200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>1940600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>1929300</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1069000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1096000</v>
+      </c>
+      <c r="F10" s="3">
         <v>1053000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1012000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1075000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1042000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1015300</v>
-      </c>
-      <c r="I10" s="3">
-        <v>970000</v>
-      </c>
-      <c r="J10" s="3">
-        <v>995000</v>
       </c>
       <c r="K10" s="3">
         <v>970000</v>
       </c>
       <c r="L10" s="3">
+        <v>995000</v>
+      </c>
+      <c r="M10" s="3">
+        <v>970000</v>
+      </c>
+      <c r="N10" s="3">
         <v>1014200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1050200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>917300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>907200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1246000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>788500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>761800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>412400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>375900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>408100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>371500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>367200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>368600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>366400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>344900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>349100</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1033,8 +1059,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1110,8 +1138,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,85 +1221,97 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F14" s="3">
         <v>5000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>9000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>10000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>3000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-8900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>24000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>19000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>39000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>58600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>22600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>20500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>873200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>-26200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>-18800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>418000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>68000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>4600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>11200</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>2900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>3900</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1293,23 +1339,23 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3">
         <v>3800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>3900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>3700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>4700</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
@@ -1323,11 +1369,11 @@
       <c r="U15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1341,8 +1387,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,162 +1419,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7756000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7433000</v>
+      </c>
+      <c r="F17" s="3">
         <v>7205000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>7120000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>7297000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>6890000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>6703200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>6541000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6798000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>6658000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>6706600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>6907400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>6413800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>6713100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>7170000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>5892900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>6557300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2887000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2542500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2566700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2487800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2402400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>2279600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>2304600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>2239200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>2225000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>99000</v>
+      </c>
+      <c r="F18" s="3">
         <v>68000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>122000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>119000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>107000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>66200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>90000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>102000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>26000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>92700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>124300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>17600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-416500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>157500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>69700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-408100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-18800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>49700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>82200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>40200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>55100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>61400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>65000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>46300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,393 +1616,425 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="E20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F20" s="3">
         <v>11000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="H20" s="3">
         <v>12000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>9000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>21100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>53200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>56800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>56200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>6000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>18200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>6600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>14200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-46000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-44900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-47000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>1000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>6000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>164000</v>
+        <v>140000</v>
       </c>
       <c r="E21" s="3">
+        <v>181000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>154000</v>
+      </c>
+      <c r="G21" s="3">
         <v>205000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>200000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>185000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>162200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>209600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>225300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>159400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>166200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>212100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>93400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-327200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>188600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>96500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-381900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>6800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>71800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>104000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>62500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>78500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>89600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>86000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>67700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>74300</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>44000</v>
+        <v>36000</v>
       </c>
       <c r="E22" s="3">
+        <v>35000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>35000</v>
+      </c>
+      <c r="G22" s="3">
         <v>36000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>38000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>40000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>40600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>77200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>83800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>83200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>51200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>50800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>51000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>52000</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U22" s="3">
         <v>7700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>4100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>4500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>4200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>3700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>3900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>4200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>4400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>45000</v>
+        <v>31000</v>
       </c>
       <c r="E23" s="3">
+        <v>72000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>44000</v>
+      </c>
+      <c r="G23" s="3">
         <v>97000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>93000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>76000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>46700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>66000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>75000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>47500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>91600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-26800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-454400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>111500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>24700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-455100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-25600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>46000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>77800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>36500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>52400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>63500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>60300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>42000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F24" s="3">
         <v>3000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>29000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>25000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>16000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>17000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>30600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-2800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-12800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-67000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>45200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-8000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-91800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-4300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>14100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>24900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>7900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>21900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>24700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>23700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>16500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,162 +2110,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>42000</v>
+        <v>22000</v>
       </c>
       <c r="E26" s="3">
+        <v>67000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>41000</v>
+      </c>
+      <c r="G26" s="3">
         <v>68000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>68000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>77000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>44900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>50000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>58000</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>17000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>94400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-14000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-387400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>66400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>32800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-363300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-21400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>32000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>52900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>28600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>30500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>38900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>36600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>25500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>40000</v>
+        <v>19000</v>
       </c>
       <c r="E27" s="3">
+        <v>66000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>39000</v>
+      </c>
+      <c r="G27" s="3">
         <v>67000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>66000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>76000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>43300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>48000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>56000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>15400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>92200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-14600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-388000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>66100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>32700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-363100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-21400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>32000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>52900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>28600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>30500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>38900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>36600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>25500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,16 +2359,22 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -2261,55 +2383,55 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-800</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>1700</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>6800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>1300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>37100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>24300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-16100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>4000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-46900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>24400</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>21400</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>2100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>800</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>-1000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>21900</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2320,8 +2442,14 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2525,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,162 +2608,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-21000</v>
+        <v>-7000</v>
       </c>
       <c r="E32" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-11000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="H32" s="3">
         <v>-12000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-9000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-21100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-53200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-56800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-56200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-6000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-18200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-6600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-14200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>46000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>44900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>47000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-1000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>40000</v>
+        <v>19000</v>
       </c>
       <c r="E33" s="3">
+        <v>66000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>39000</v>
+      </c>
+      <c r="G33" s="3">
         <v>67000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>66000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>76000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>42500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>49700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>62800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>52500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>116500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-30700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-383900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>19200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>57100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-341700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-19300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>32800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>51900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>50500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>30500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>38900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>36600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>25500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,167 +2857,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>40000</v>
+        <v>19000</v>
       </c>
       <c r="E35" s="3">
+        <v>66000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>39000</v>
+      </c>
+      <c r="G35" s="3">
         <v>67000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>66000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>76000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>42500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>49700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>62800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>52500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>116500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-30700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-383900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>19200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>57100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-341700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-19300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>32800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>51900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>50500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>30500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>38900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>36600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>25500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44863</v>
+      </c>
+      <c r="F38" s="2">
         <v>44772</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44590</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44499</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44317</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44226</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44044</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43953</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43862</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43771</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43680</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43582</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43491</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43400</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43309</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43218</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43127</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43036</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42945</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42854</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42763</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +3063,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,85 +3094,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>39000</v>
+      </c>
+      <c r="F41" s="3">
         <v>44000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>48000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>45000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>46000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>41000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>39500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>40500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>49000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>47000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>56400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>40100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>39800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>44500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>37900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>49500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>53900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>23300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>21800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>25400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>21200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>15400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>16100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>30700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3076,363 +3256,393 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>997000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1356000</v>
+      </c>
+      <c r="F43" s="3">
         <v>1220000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1235000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1248000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1255000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1110000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1116900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1149200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1211200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1169500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1244700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1087800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1148200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1078900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1049300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1094900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1114000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>579700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>635200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>629400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>598700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>525600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>547800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>514900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>534300</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2512000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2756000</v>
+      </c>
+      <c r="F44" s="3">
         <v>2355000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>2559000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>2426000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>2537000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>2247000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>2293900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>2228800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2446600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>2280800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>2025700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>2134900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>2325000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>2190700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>2215000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>2242700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>2405000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1135800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>1195900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>1140900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>1167500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>1031700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>1042000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>992600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>1077900</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>192000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>209000</v>
+      </c>
+      <c r="F45" s="3">
         <v>178000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>138000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>145000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>181000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>152000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>135500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>230300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>233600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>207700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>396600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>356700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>337100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>471600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>333000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>279600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>917100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>50100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>42000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>61500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>51500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>89900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>89000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>100300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>78700</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3741000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4360000</v>
+      </c>
+      <c r="F46" s="3">
         <v>3797000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3980000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3864000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4019000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3550000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3585800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3648700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3940500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3704900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3723500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3619500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3850000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3558900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>3635100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>3666700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>4490000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1788900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1894800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1857200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1838900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1662700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1695000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>1638400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>1704600</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F47" s="3">
         <v>12000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>13000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>13000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>15000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>15000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>17200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>19100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>19500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>25800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>25500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>24300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>25700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>34400</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>8</v>
@@ -3440,11 +3650,11 @@
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
-      </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -3461,162 +3671,180 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2937000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2871000</v>
+      </c>
+      <c r="F48" s="3">
         <v>2866000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2830000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2861000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2864000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2848000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2803100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2688600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2673400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2684000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2518300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2532700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2545400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1896200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1648200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1658000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1544000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>571100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>574200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>578100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>588600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>602100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>603400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>604600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>608300</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>803000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>821000</v>
+      </c>
+      <c r="F49" s="3">
         <v>839000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>857000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>875000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>893000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>911000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>930100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>948100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>966300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>989200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>975900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>997900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1019400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1532100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1543700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1535300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1986200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>555700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>559900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>564700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>575200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>579500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>580900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>586100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>594700</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3920,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,85 +4003,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>136000</v>
+      </c>
+      <c r="F52" s="3">
         <v>114000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>198000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>188000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>208000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>201000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>184600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>185600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>184000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>183000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>457700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>508100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>523000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>260100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>500200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>538300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>567500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>48700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>50000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>49800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>43500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>42300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>41300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>40900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,85 +4169,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7635000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8199000</v>
+      </c>
+      <c r="F54" s="3">
         <v>7628000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>7878000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>7801000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>7999000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>7525000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>7520800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>7490100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>7783600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>7587000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>7700800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>7682400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>7963500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>7174300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>7327200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>7398300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>8587600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2964500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>3078800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>3049700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>3046300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>2886600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>2920600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>2870000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>2943000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4287,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,470 +4318,508 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1797000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1924000</v>
+      </c>
+      <c r="F57" s="3">
         <v>1742000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1715000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1737000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1896000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1644000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1600000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1618300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1729800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1633400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1716300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1462800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1606500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1532300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1472300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1452600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1485800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>517100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>543600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>627100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>638500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>534600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>547000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>449500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>514400</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E58" s="3">
         <v>27000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>27000</v>
+      </c>
+      <c r="G58" s="3">
         <v>26000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>122000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>121000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>120000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>23700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>24800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>25700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>83400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>33400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>32200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>34500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>112100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>133700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>143600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>730400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>12400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>12400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>12300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>12200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>12100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>12000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>12000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>576000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>614000</v>
+      </c>
+      <c r="F59" s="3">
         <v>648000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>648000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>696000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>674000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>723000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>641200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>650500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>618700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>653200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>727900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>664000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>639400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>464500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>496200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>582800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>616600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>169700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>176100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>159300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>164800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>157200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>151800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>144500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2396000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2565000</v>
+      </c>
+      <c r="F60" s="3">
         <v>2417000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2389000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2555000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2691000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2487000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2264900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2293600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2374200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2370100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2477600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2159000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2280300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2108900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2102100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2179100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2832800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>699200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>732200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>798700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>815600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>704000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>710800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>606100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>683000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2083000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2505000</v>
+      </c>
+      <c r="F61" s="3">
         <v>2132000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2404000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2339000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2408000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2210000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2447200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2508800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2758300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2570300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2687300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2973900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>3119900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2927300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>3066900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>3089900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>3239700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>347700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>469700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>430800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>434800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>373500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>457100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>549400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>582400</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1311000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1294000</v>
+      </c>
+      <c r="F62" s="3">
         <v>1288000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1300000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1224000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1313000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1314000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1507700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1458600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1503200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1504300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1367900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1450400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1440100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>633800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>627900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>645900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>684800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>71600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>64600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>65400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>87900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>127200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>123500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>124300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>125200</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4895,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4978,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,85 +5061,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5793000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6364000</v>
+      </c>
+      <c r="F66" s="3">
         <v>5838000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6092000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6117000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6410000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6010000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>6218400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6259900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6633500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6442200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6531000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6580400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6837000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5667300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>5795000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>5912900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6755700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1118500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1266500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1294900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1338200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1204600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1291400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1279800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1390600</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5179,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5258,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5341,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5424,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,85 +5507,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1311000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1292000</v>
+      </c>
+      <c r="F72" s="3">
         <v>1226000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1187000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1120000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1054000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>978000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>934900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>886300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>827400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>837600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>786400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>698300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>729000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1108900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1096600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1039500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1381200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1400200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1367400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>1315600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>1265100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>1235400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>1196500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>1159900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>1134400</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5673,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5756,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,85 +5839,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1842000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1835000</v>
+      </c>
+      <c r="F76" s="3">
         <v>1790000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1786000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1684000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1589000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1515000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1302400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1230200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1150100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1144700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1169800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1102100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1126600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1507000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1532200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1485400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1831900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1846000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1812300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1754700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1708100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1681900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1629200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>1590200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>1552500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,167 +6005,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44863</v>
+      </c>
+      <c r="F80" s="2">
         <v>44772</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44590</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44499</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44317</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44226</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44044</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43953</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43862</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43771</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43680</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43582</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43491</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43400</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43309</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43218</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43127</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43036</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42945</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42854</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42763</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>40000</v>
+        <v>19000</v>
       </c>
       <c r="E81" s="3">
+        <v>66000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>39000</v>
+      </c>
+      <c r="G81" s="3">
         <v>67000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>66000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>76000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>42500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>49700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>62800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>52500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>116500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-30700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-383900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>19200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>57100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-341700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-19300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>32800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>51900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>50500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>30500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>38900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>36600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>25500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,85 +6211,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>74000</v>
+      </c>
+      <c r="F83" s="3">
         <v>75000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>72000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>69000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>69000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>74900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>66400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>66500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>77200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>67500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>69600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>69200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>75100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>77000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>71800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>73200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>24800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>21600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>21700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>21800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>22400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>22100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>21500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>21200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6373,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6456,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6539,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6622,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,85 +6705,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>532000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-262000</v>
+      </c>
+      <c r="F89" s="3">
         <v>362000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-74000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>124000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-81000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>277600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>129400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>264700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-57700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>4300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>413200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>174000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-134900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>207300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>51300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>132900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-107000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>140700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-27900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>36700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-40200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>117700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>66200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>104200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-7300</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,85 +6823,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-67000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-93000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-52000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-50000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-56000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-144500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-73900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-50100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-41400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-54300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-33600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-43500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-41100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-70900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-56800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-63800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-16400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-15000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-14100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-10300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-5300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-16100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-17300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-13500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6985,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,85 +7068,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-94000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>174000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-48000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-81000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-126300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-60500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-14700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-35500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>71600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-15300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-33800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-23900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-59000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-50500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-8400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-2140900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-14700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-14500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-13300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-4500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-8800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-16500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-15400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-19300</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,8 +7186,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6797,8 +7265,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7348,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7431,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,93 +7514,105 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-450000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>319000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-272000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-98000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-76000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>167000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-150300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-70200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-258800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>95300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-87600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-381100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-140400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>156100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-144000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-15500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-693700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>2849500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-148100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>31400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-19900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>82600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-110400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-64000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-71800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -7123,140 +7621,152 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>1600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-1800</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-4000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>2000</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>5000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-8600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-11600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>16400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-2700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>4400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-13000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-571000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>601600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>1600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-3600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>4200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>5700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-14500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>17100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-5000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UNFI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UNFI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>UNFI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,373 +665,385 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45045</v>
+      </c>
+      <c r="E7" s="2">
         <v>44954</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44863</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44772</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44590</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44499</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44317</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44226</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44044</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43953</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43862</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43771</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43680</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43582</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43491</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43400</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43309</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43218</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43127</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43036</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42945</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42854</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42763</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7507000</v>
+      </c>
+      <c r="E8" s="3">
         <v>7816000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7532000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7273000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7242000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7416000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6997000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6769400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6631000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6900000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6684000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6799300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7031700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6431400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6296600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7327500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5962600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6149200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2868200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2592200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2648900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2528000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2457500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2341000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2369600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2285500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2278400</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6507000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6747000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6436000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6220000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6230000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6341000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5955000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5754100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5661000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5905000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5714000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5785100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5981500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5514100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5389400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6081500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5174100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5387400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2455800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2216300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2240800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2156500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2090300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1972400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2003200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1940600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1929300</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1069000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1096000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1053000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1012000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1075000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1042000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1015300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>970000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>995000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>970000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1014200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1050200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>917300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>907200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1246000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>788500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>761800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>412400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>375900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>408100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>371500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>367200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>368600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>366400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>344900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>349100</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1061,8 +1073,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1144,8 +1157,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1227,91 +1243,97 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E14" s="3">
         <v>3000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>9000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>10000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-8900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>24000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>19000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>39000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>58600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>22600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>20500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>873200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-26200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-18800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>418000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>68000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>4600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>11200</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2900</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>3900</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1345,20 +1367,20 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3">
         <v>3800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4700</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>8</v>
@@ -1375,8 +1397,8 @@
       <c r="W15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
+      <c r="X15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
@@ -1393,8 +1415,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1421,174 +1446,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7474000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7756000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7433000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7205000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7120000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7297000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6890000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6703200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6541000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6798000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6658000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6706600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6907400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6413800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6713100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7170000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5892900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6557300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2887000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2542500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2566700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2487800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2402400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2279600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2304600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2239200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2225000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E18" s="3">
         <v>60000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>99000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>68000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>122000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>119000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>107000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>66200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>90000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>102000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>26000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>92700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>124300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>17600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-416500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>157500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>69700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-408100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-18800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>49700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>82200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>40200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>55100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>61400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>65000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>46300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1618,174 +1650,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E20" s="3">
         <v>7000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>8000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>11000</v>
       </c>
       <c r="G20" s="3">
         <v>11000</v>
       </c>
       <c r="H20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="I20" s="3">
         <v>12000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>9000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>21100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>53200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>56800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>56200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>18200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>6600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>14200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-46000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-44900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-47000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>6000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E21" s="3">
         <v>140000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>181000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>154000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>205000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>200000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>185000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>162200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>209600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>225300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>159400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>166200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>212100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>93400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-327200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>188600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>96500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-381900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>6800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>71800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>104000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>62500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>78500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>89600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>86000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>67700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>74300</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1793,46 +1832,46 @@
         <v>36000</v>
       </c>
       <c r="E22" s="3">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="F22" s="3">
         <v>35000</v>
       </c>
       <c r="G22" s="3">
+        <v>35000</v>
+      </c>
+      <c r="H22" s="3">
         <v>36000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>38000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>40000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>40600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>77200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>83800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>83200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>51200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>50800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>51000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>52000</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>8</v>
@@ -1840,201 +1879,210 @@
       <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V22" s="3">
         <v>7700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>4500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>4200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>3700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>3900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>4200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>4400</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E23" s="3">
         <v>31000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>72000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>44000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>97000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>93000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>76000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>46700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>66000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>75000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>47500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>91600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-26800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-454400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>111500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>24700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-455100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-25600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>46000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>77800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>36500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>52400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>63500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>60300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>42000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>9000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>29000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>25000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>16000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>17000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>30600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-67000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>45200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-8000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-91800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-4300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>14100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>24900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>7900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>21900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>24700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>23700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>16500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2116,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E26" s="3">
         <v>22000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>67000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>41000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>68000</v>
       </c>
       <c r="H26" s="3">
         <v>68000</v>
       </c>
       <c r="I26" s="3">
+        <v>68000</v>
+      </c>
+      <c r="J26" s="3">
         <v>77000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>44900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>50000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>58000</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>17000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>94400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-387400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>66400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>32800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-363300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-21400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>32000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>52900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>28600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>30500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>38900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>36600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>25500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E27" s="3">
         <v>19000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>66000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>39000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>67000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>66000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>76000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>43300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>48000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>56000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>15400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>92200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-388000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>66100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>32700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-363100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-21400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>32000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>52900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>28600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>30500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>38900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>36600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>25500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2365,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2376,8 +2436,8 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -2389,52 +2449,52 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>1700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>6800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>1300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>37100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>24300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-16100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>4000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-46900</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>24400</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>21400</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>2100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>800</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-1000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>21900</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2448,8 +2508,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2531,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2614,174 +2680,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-8000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-11000</v>
       </c>
       <c r="G32" s="3">
         <v>-11000</v>
       </c>
       <c r="H32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-12000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-9000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-21100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-53200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-56800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-56200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-18200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-14200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>46000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>44900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>47000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-6000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E33" s="3">
         <v>19000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>66000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>39000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>67000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>66000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>76000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>42500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>49700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>62800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>52500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>116500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-30700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-383900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>19200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>57100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-341700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-19300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>32800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>51900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>50500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>30500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>38900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>36600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>25500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2863,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E35" s="3">
         <v>19000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>66000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>39000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>67000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>66000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>76000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>42500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>49700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>62800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>52500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>116500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-30700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-383900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>19200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>57100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-341700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-19300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>32800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>51900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>50500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>30500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>38900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>36600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>25500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45045</v>
+      </c>
+      <c r="E38" s="2">
         <v>44954</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44863</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44772</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44590</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44499</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44317</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44226</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44044</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43953</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43862</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43771</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43680</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43582</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43491</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43400</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43309</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43218</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43127</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43036</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42945</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42854</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42763</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3065,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3096,91 +3181,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E41" s="3">
         <v>40000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>39000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>44000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>48000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>45000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>46000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>41000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>39500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>40500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>49000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>47000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>56400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>40100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>39800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>44500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>37900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>49500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>53900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>23300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>21800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>25400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>21200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>15400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>16100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>30700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3262,390 +3351,405 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>988000</v>
+      </c>
+      <c r="E43" s="3">
         <v>997000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1356000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1220000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1235000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1248000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1255000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1110000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1116900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1149200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1211200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1169500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1244700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1087800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1148200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1078900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1049300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1094900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1114000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>579700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>635200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>629400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>598700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>525600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>547800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>514900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>534300</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2465000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2512000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2756000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2355000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2559000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2426000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2537000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2247000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2293900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2228800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2446600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2280800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2025700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2134900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2325000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2190700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2215000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2242700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2405000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1135800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1195900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1140900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1167500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1031700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1042000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>992600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1077900</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>201000</v>
+      </c>
+      <c r="E45" s="3">
         <v>192000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>209000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>178000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>138000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>145000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>181000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>152000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>135500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>230300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>233600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>207700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>396600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>356700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>337100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>471600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>333000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>279600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>917100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>50100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>42000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>61500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>51500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>89900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>89000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>100300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>78700</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3692000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3741000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4360000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3797000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3980000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3864000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4019000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3550000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3585800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3648700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3940500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3704900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3723500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3619500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3850000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3558900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3635100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3666700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4490000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1788900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1894800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1857200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1838900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1662700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1695000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1638400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1704600</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E47" s="3">
         <v>10000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>11000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>12000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>13000</v>
       </c>
       <c r="H47" s="3">
         <v>13000</v>
       </c>
       <c r="I47" s="3">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="J47" s="3">
         <v>15000</v>
       </c>
       <c r="K47" s="3">
+        <v>15000</v>
+      </c>
+      <c r="L47" s="3">
         <v>17200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>19100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>19500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>25800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>25500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>24300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>25700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>34400</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>8</v>
@@ -3656,8 +3760,8 @@
       <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
+      <c r="W47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X47" s="3">
         <v>0</v>
@@ -3677,174 +3781,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2971000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2937000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2871000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2866000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2830000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2861000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2864000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2848000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2803100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2688600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2673400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2684000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2518300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2532700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2545400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1896200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1648200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1658000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1544000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>571100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>574200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>578100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>588600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>602100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>603400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>604600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>608300</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>785000</v>
+      </c>
+      <c r="E49" s="3">
         <v>803000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>821000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>839000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>857000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>875000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>893000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>911000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>930100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>948100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>966300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>989200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>975900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>997900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1019400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1532100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1543700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1535300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1986200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>555700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>559900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>564700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>575200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>579500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>580900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>586100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>594700</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3926,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4009,91 +4125,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E52" s="3">
         <v>144000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>136000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>114000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>198000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>188000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>208000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>201000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>184600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>185600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>184000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>183000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>457700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>508100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>523000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>260100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>500200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>538300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>567500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>48700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>50000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>49800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>43500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>42300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>41300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>40900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4175,91 +4297,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7641000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7635000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8199000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7628000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7878000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7801000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7999000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7525000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7520800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7490100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7783600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7587000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7700800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7682400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7963500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7174300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7327200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7398300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8587600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2964500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3078800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3049700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3046300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2886600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2920600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2870000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2943000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4289,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4320,506 +4449,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1837000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1797000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1924000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1742000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1715000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1737000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1896000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1644000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1600000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1618300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1729800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1633400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1716300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1462800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1606500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1532300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1472300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1452600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1485800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>517100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>543600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>627100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>638500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>534600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>547000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>449500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>514400</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E58" s="3">
         <v>23000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>27000</v>
       </c>
       <c r="F58" s="3">
         <v>27000</v>
       </c>
       <c r="G58" s="3">
+        <v>27000</v>
+      </c>
+      <c r="H58" s="3">
         <v>26000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>122000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>121000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>120000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>23700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>24800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>25700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>83400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>33400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>32200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>34500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>112100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>133700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>143600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>730400</v>
-      </c>
-      <c r="V58" s="3">
-        <v>12400</v>
       </c>
       <c r="W58" s="3">
         <v>12400</v>
       </c>
       <c r="X58" s="3">
+        <v>12400</v>
+      </c>
+      <c r="Y58" s="3">
         <v>12300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>12200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>12100</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>12000</v>
       </c>
       <c r="AB58" s="3">
         <v>12000</v>
       </c>
       <c r="AC58" s="3">
+        <v>12000</v>
+      </c>
+      <c r="AD58" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>597000</v>
+      </c>
+      <c r="E59" s="3">
         <v>576000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>614000</v>
-      </c>
-      <c r="F59" s="3">
-        <v>648000</v>
       </c>
       <c r="G59" s="3">
         <v>648000</v>
       </c>
       <c r="H59" s="3">
+        <v>648000</v>
+      </c>
+      <c r="I59" s="3">
         <v>696000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>674000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>723000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>641200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>650500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>618700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>653200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>727900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>664000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>639400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>464500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>496200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>582800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>616600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>169700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>176100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>159300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>164800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>157200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>151800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>144500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2455000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2396000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2565000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2417000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2389000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2555000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2691000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2487000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2264900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2293600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2374200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2370100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2477600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2159000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2280300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2108900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2102100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2179100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2832800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>699200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>732200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>798700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>815600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>704000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>710800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>606100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>683000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2037000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2083000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2505000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2132000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2404000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2339000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2408000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2210000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2447200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2508800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2758300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2570300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2687300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2973900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3119900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2927300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3066900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3089900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3239700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>347700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>469700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>430800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>434800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>373500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>457100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>549400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>582400</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1307000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1311000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1294000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1288000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1300000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1224000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1313000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1314000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1507700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1458600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1503200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1504300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1367900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1450400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1440100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>633800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>627900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>645900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>684800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>71600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>64600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>65400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>87900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>127200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>123500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>124300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>125200</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4901,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4984,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5067,91 +5221,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5800000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5793000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6364000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5838000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6092000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6117000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6410000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6010000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6218400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6259900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6633500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6442200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6531000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6580400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6837000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5667300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5795000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5912900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6755700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1118500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1266500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1294900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1338200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1204600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1291400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1279800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1390600</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5181,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5264,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5347,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5430,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5513,91 +5683,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1318000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1311000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1292000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1226000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1187000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1120000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1054000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>978000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>934900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>886300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>827400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>837600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>786400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>698300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>729000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1108900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1096600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1039500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1381200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1400200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1367400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1315600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1265100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1235400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1196500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1159900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1134400</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5679,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5762,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5845,91 +6027,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1841000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1842000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1835000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1790000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1786000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1684000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1589000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1515000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1302400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1230200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1150100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1144700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1169800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1102100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1126600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1507000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1532200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1485400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1831900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1846000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1812300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1754700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1708100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1681900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1629200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1590200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1552500</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6011,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45045</v>
+      </c>
+      <c r="E80" s="2">
         <v>44954</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44863</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44772</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44590</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44499</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44317</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44226</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44044</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43953</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43862</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43771</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43680</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43582</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43491</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43400</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43309</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43218</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43127</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43036</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42945</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42854</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42763</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E81" s="3">
         <v>19000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>66000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>39000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>67000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>66000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>76000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>42500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>49700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>62800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>52500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>116500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-30700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-383900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>19200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>57100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-341700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-19300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>32800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>51900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>50500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>30500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>38900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>36600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>25500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6213,91 +6410,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E83" s="3">
         <v>73000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>74000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>75000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>72000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>69000</v>
       </c>
       <c r="I83" s="3">
         <v>69000</v>
       </c>
       <c r="J83" s="3">
+        <v>69000</v>
+      </c>
+      <c r="K83" s="3">
         <v>74900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>66400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>66500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>77200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>67500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>69600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>69200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>75100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>77000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>71800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>73200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>24800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>21600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>21700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>21800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>22400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>22100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>21500</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>21200</v>
       </c>
       <c r="AC83" s="3">
         <v>21200</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>21200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6379,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6462,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6545,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6628,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6711,91 +6924,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>132000</v>
+      </c>
+      <c r="E89" s="3">
         <v>532000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-262000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>362000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-74000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>124000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-81000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>277600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>129400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>264700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-57700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>413200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>174000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-134900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>207300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>51300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>132900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-107000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>140700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-27900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>36700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-40200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>117700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>66200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>104200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-7300</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6825,91 +7044,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-67000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-84000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-67000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-93000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-52000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-50000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-56000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-144500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-73900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-50100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-41400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-54300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-33600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-43500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-41100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-70900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-56800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-63800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-16400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-15000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-14100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-10300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-16100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-17300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-13500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6991,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7074,91 +7300,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-82000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-61000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-94000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>174000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-48000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-81000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-126300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-60500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-14700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-35500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>71600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-33800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-23900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-59000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-50500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2140900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-14700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-14500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-13300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-4500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-8800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-16500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-15400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-19300</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7188,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7271,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7354,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7437,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7520,103 +7762,109 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-450000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>319000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-272000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-98000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-76000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>167000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-150300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-70200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-258800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>95300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-87600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-381100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-140400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>156100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-144000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-15500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-693700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2849500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-148100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>31400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-19900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>82600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-110400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-64000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-71800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -7627,146 +7875,152 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>600</v>
-      </c>
-      <c r="K101" s="3">
-        <v>200</v>
       </c>
       <c r="L101" s="3">
         <v>200</v>
       </c>
       <c r="M101" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N101" s="3">
         <v>100</v>
       </c>
       <c r="O101" s="3">
+        <v>100</v>
+      </c>
+      <c r="P101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1800</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-200</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>100</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2000</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>5000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-11600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>16400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-13000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-571000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>601600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>4200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>5700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-14500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>17100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-5000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UNFI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UNFI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>UNFI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,385 +665,398 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E7" s="2">
         <v>45045</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44954</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44863</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44772</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44590</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44499</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44317</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44226</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44044</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43953</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43862</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43771</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43680</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43582</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43491</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43400</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43309</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43218</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43127</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43036</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42945</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42854</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42763</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7417000</v>
+      </c>
+      <c r="E8" s="3">
         <v>7507000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7816000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7532000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7273000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7242000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7416000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6997000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6769400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6631000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6900000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6684000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6799300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7031700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6431400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6296600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7327500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5962600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6149200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2868200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2592200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2648900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2528000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2457500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2341000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2369600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2285500</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2278400</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6451000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6507000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6747000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6436000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6220000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6230000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6341000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5955000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5754100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5661000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5905000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5714000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5785100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5981500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5514100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5389400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6081500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5174100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5387400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2455800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2216300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2240800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2156500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2090300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1972400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2003200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1940600</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1929300</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>966000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1000000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1069000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1096000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1053000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1012000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1075000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1042000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1015300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>970000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>995000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>970000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1014200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1050200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>917300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>907200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1246000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>788500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>761800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>412400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>375900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>408100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>371500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>367200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>368600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>366400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>344900</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>349100</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1074,8 +1087,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1160,8 +1174,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,94 +1263,100 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-4000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>9000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>10000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-8900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>24000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>19000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>39000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>58600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>22600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>20500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>873200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-26200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-18800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>418000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>68000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>4600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>11200</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>2900</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>3900</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1370,20 +1393,20 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="3">
         <v>3800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4700</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>8</v>
@@ -1400,8 +1423,8 @@
       <c r="X15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
+      <c r="Y15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
@@ -1418,8 +1441,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,180 +1473,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7492000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7474000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7756000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7433000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7205000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7120000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7297000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6890000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6703200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6541000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6798000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6658000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6706600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6907400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6413800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6713100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7170000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5892900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6557300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2887000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2542500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2566700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2487800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2402400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2279600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2304600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2239200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2225000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-75000</v>
+      </c>
+      <c r="E18" s="3">
         <v>33000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>60000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>99000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>68000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>122000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>119000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>107000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>66200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>90000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>102000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>26000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>92700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>124300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>17600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-416500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>157500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>69700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-408100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-18800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>49700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>82200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>40200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>55100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>61400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>65000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>46300</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,180 +1684,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E20" s="3">
         <v>10000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>8000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>11000</v>
       </c>
       <c r="H20" s="3">
         <v>11000</v>
       </c>
       <c r="I20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J20" s="3">
         <v>12000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>9000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>21100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>53200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>56800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>56200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>18200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>6600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>14200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-46000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-44900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-47000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>6000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>200</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E21" s="3">
         <v>120000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>140000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>181000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>154000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>205000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>200000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>185000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>162200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>209600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>225300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>159400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>166200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>212100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>93400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-327200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>188600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>96500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-381900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>6800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>71800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>104000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>62500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>78500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>89600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>86000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>67700</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>74300</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1835,46 +1875,46 @@
         <v>36000</v>
       </c>
       <c r="F22" s="3">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="G22" s="3">
         <v>35000</v>
       </c>
       <c r="H22" s="3">
+        <v>35000</v>
+      </c>
+      <c r="I22" s="3">
         <v>36000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>38000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>40000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>40600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>77200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>83800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>83200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>51200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>50800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>51000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>52000</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>8</v>
@@ -1882,207 +1922,216 @@
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W22" s="3">
         <v>7700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>4100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>4500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>4200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>3700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>3900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>4200</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>4400</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="E23" s="3">
         <v>7000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>31000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>72000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>44000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>97000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>93000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>76000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>46700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>66000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>75000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>47500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>91600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-26800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-454400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>111500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>24700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-455100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-25600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>46000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>77800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>36500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>52400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>63500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>60300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>42000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>29000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>25000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>16000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>17000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>30600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-12800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-67000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>45200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-8000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-91800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-4300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>14100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>24900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>7900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>21900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>24700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>23700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>16500</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,180 +2216,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-67000</v>
+      </c>
+      <c r="E26" s="3">
         <v>8000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>22000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>67000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>41000</v>
-      </c>
-      <c r="H26" s="3">
-        <v>68000</v>
       </c>
       <c r="I26" s="3">
         <v>68000</v>
       </c>
       <c r="J26" s="3">
+        <v>68000</v>
+      </c>
+      <c r="K26" s="3">
         <v>77000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>44900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>50000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>58000</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>17000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>94400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-14000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-387400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>66400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>32800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-363300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-21400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>32000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>52900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>28600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>30500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>38900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>36600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>25500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="E27" s="3">
         <v>7000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>19000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>66000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>39000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>67000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>66000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>76000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>43300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>48000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>56000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>15400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>92200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-14600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-388000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>66100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>32700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-363100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-21400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>32000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>52900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>28600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>30500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>38900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>36600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>25500</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,13 +2483,16 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -2439,8 +2500,8 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -2452,52 +2513,52 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>1700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>6800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>1300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>37100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>24300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-16100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>4000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-46900</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>24400</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>21400</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>2100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>800</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>21900</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2511,8 +2572,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2661,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,180 +2750,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-10000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-8000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-11000</v>
       </c>
       <c r="H32" s="3">
         <v>-11000</v>
       </c>
       <c r="I32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-12000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-9000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-21100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-53200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-56800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-56200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-6600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-14200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>46000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>44900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>47000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-6000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-200</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="E33" s="3">
         <v>7000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>19000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>66000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>39000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>67000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>66000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>76000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>42500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>49700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>62800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>52500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>116500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-30700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-383900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>19200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>57100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-341700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-19300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>32800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>51900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>50500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>30500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>38900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>36600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>25500</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,185 +3017,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="E35" s="3">
         <v>7000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>19000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>66000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>39000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>67000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>66000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>76000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>42500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>49700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>62800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>52500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>116500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-30700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-383900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>19200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>57100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-341700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-19300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>32800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>51900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>50500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>30500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>38900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>36600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>25500</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E38" s="2">
         <v>45045</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44954</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44863</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44772</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44590</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44499</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44317</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44226</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44044</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43953</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43862</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43771</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43680</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43582</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43491</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43400</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43309</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43218</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43127</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43036</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42945</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42854</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42763</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3235,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,94 +3268,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E41" s="3">
         <v>38000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>40000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>39000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>44000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>48000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>45000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>46000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>41000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>39500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>40500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>49000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>47000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>56400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>40100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>39800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>44500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>37900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>49500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>53900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>23300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>21800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>25400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>21200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>15400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>16100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>30700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3354,352 +3444,367 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>892000</v>
+      </c>
+      <c r="E43" s="3">
         <v>988000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>997000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1356000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1220000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1235000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1248000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1255000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1110000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1116900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1149200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1211200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1169500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1244700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1087800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1148200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1078900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1049300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1094900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1114000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>579700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>635200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>629400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>598700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>525600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>547800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>514900</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>534300</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2292000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2465000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2512000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2756000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2355000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2559000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2426000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2537000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2247000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2293900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2228800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2446600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2280800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2025700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2134900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2325000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2190700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2215000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2242700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2405000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1135800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1195900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1140900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1167500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1031700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1042000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>992600</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1077900</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>242000</v>
+      </c>
+      <c r="E45" s="3">
         <v>201000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>192000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>209000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>178000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>138000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>145000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>181000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>152000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>135500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>230300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>233600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>207700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>396600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>356700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>337100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>471600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>333000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>279600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>917100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>50100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>42000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>61500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>51500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>89900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>89000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>100300</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>78700</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3463000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3692000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3741000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4360000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3797000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3980000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3864000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4019000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3550000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3585800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3648700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3940500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3704900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3723500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3619500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3850000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3558900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3635100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3666700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4490000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1788900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1894800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1857200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1838900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1662700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1695000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1638400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1704600</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3707,52 +3812,52 @@
         <v>7000</v>
       </c>
       <c r="E47" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F47" s="3">
         <v>10000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>11000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>12000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>13000</v>
       </c>
       <c r="I47" s="3">
         <v>13000</v>
       </c>
       <c r="J47" s="3">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="K47" s="3">
         <v>15000</v>
       </c>
       <c r="L47" s="3">
+        <v>15000</v>
+      </c>
+      <c r="M47" s="3">
         <v>17200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>19100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>19500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>25800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>25500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>24300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>25700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>34400</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>8</v>
@@ -3763,8 +3868,8 @@
       <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X47" s="3">
-        <v>0</v>
+      <c r="X47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y47" s="3">
         <v>0</v>
@@ -3784,180 +3889,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2995000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2971000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2937000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2871000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2866000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2830000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2861000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2864000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2848000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2803100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2688600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2673400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2684000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2518300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2532700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2545400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1896200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1648200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1658000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1544000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>571100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>574200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>578100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>588600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>602100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>603400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>604600</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>608300</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>742000</v>
+      </c>
+      <c r="E49" s="3">
         <v>785000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>803000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>821000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>839000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>857000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>875000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>893000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>911000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>930100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>948100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>966300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>989200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>975900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>997900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1019400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1532100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1543700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1535300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1986200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>555700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>559900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>564700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>575200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>579500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>580900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>586100</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>594700</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4156,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,94 +4245,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>187000</v>
+      </c>
+      <c r="E52" s="3">
         <v>186000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>144000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>136000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>114000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>198000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>188000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>208000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>201000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>184600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>185600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>184000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>183000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>457700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>508100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>523000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>260100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>500200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>538300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>567500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>48700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>50000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>49800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>43500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>42300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>41300</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>40900</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,94 +4423,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7394000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7641000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7635000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8199000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7628000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7878000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7801000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7999000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7525000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7520800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7490100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7783600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7587000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7700800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7682400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7963500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7174300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7327200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7398300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8587600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2964500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3078800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3049700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3046300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2886600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2920600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2870000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>2943000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4547,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,524 +4580,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1781000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1837000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1797000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1924000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1742000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1715000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1737000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1896000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1644000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1600000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1618300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1729800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1633400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1716300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1462800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1606500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1532300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1472300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1452600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1485800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>517100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>543600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>627100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>638500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>534600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>547000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>449500</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>514400</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E58" s="3">
         <v>21000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>23000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>27000</v>
       </c>
       <c r="G58" s="3">
         <v>27000</v>
       </c>
       <c r="H58" s="3">
+        <v>27000</v>
+      </c>
+      <c r="I58" s="3">
         <v>26000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>122000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>121000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>120000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>23700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>24800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>25700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>83400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>33400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>32200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>34500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>112100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>133700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>143600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>730400</v>
-      </c>
-      <c r="W58" s="3">
-        <v>12400</v>
       </c>
       <c r="X58" s="3">
         <v>12400</v>
       </c>
       <c r="Y58" s="3">
+        <v>12400</v>
+      </c>
+      <c r="Z58" s="3">
         <v>12300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>12200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>12100</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>12000</v>
       </c>
       <c r="AC58" s="3">
         <v>12000</v>
       </c>
       <c r="AD58" s="3">
+        <v>12000</v>
+      </c>
+      <c r="AE58" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>606000</v>
+      </c>
+      <c r="E59" s="3">
         <v>597000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>576000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>614000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>648000</v>
       </c>
       <c r="H59" s="3">
         <v>648000</v>
       </c>
       <c r="I59" s="3">
+        <v>648000</v>
+      </c>
+      <c r="J59" s="3">
         <v>696000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>674000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>723000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>641200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>650500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>618700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>653200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>727900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>664000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>639400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>464500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>496200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>582800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>616600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>169700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>176100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>159300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>164800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>157200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>151800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>144500</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2405000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2455000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2396000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2565000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2417000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2389000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2555000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2691000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2487000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2264900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2293600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2374200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2370100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2477600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2159000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2280300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2108900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2102100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2179100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2832800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>699200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>732200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>798700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>815600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>704000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>710800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>606100</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>683000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1968000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2037000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2083000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2505000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2132000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2404000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2339000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2408000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2210000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2447200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2508800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2758300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2570300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2687300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2973900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3119900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2927300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3066900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3089900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3239700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>347700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>469700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>430800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>434800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>373500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>457100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>549400</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>582400</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1277000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1307000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1311000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1294000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1288000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1300000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1224000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1313000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1314000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1507700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1458600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1503200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1504300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1367900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1450400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1440100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>633800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>627900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>645900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>684800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>71600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>64600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>65400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>87900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>127200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>123500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>124300</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>125200</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5201,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5290,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,94 +5379,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5651000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5800000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5793000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6364000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5838000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6092000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6117000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6410000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6010000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6218400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6259900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6633500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6442200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6531000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6580400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6837000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5667300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5795000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5912900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6755700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1118500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1266500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1294900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1338200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1204600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1291400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1279800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1390600</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5503,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5590,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5679,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5768,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,94 +5857,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1250000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1318000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1311000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1292000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1226000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1187000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1120000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1054000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>978000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>934900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>886300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>827400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>837600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>786400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>698300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>729000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1108900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1096600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1039500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1381200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1400200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1367400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1315600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1265100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1235400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1196500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1159900</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1134400</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6035,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6124,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,94 +6213,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1743000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1841000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1842000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1835000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1790000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1786000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1684000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1589000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1515000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1302400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1230200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1150100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1144700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1169800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1102100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1126600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1507000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1532200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1485400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1831900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1846000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1812300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1754700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1708100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1681900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1629200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1590200</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1552500</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,185 +6391,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E80" s="2">
         <v>45045</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44954</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44863</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44772</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44590</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44499</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44317</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44226</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44044</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43953</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43862</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43771</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43680</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43582</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43491</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43400</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43309</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43218</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43127</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43036</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42945</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42854</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42763</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="E81" s="3">
         <v>7000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>19000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>66000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>39000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>67000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>66000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>76000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>42500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>49700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>62800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>52500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>116500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-30700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-383900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>19200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>57100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-341700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-19300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>32800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>51900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>50500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>30500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>38900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>36600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>25500</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,94 +6609,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E83" s="3">
         <v>77000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>73000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>74000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>75000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>72000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>69000</v>
       </c>
       <c r="J83" s="3">
         <v>69000</v>
       </c>
       <c r="K83" s="3">
+        <v>69000</v>
+      </c>
+      <c r="L83" s="3">
         <v>74900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>66400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>66500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>77200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>67500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>69600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>69200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>75100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>77000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>71800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>73200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>24800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>21600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>21700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>21800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>22400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>22100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>21500</v>
-      </c>
-      <c r="AC83" s="3">
-        <v>21200</v>
       </c>
       <c r="AD83" s="3">
         <v>21200</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>21200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6785,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6874,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6963,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7052,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,94 +7141,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>222000</v>
+      </c>
+      <c r="E89" s="3">
         <v>132000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>532000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-262000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>362000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-74000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>124000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-81000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>277600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>129400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>264700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-57700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>413200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>174000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-134900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>207300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>51300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>132900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-107000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>140700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-27900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>36700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-40200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>117700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>66200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>104200</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-7300</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,94 +7265,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-105000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-67000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-84000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-67000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-93000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-52000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-50000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-56000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-144500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-73900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-50100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-41400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-54300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-33600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-43500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-41100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-70900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-56800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-63800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-16400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-15000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-14100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-10300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-5300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-16100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-17300</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-13500</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7441,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,94 +7530,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-68000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-82000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-61000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-94000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>174000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-48000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-81000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-126300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-60500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-14700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-35500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>71600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-33800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-23900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-59000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-50500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-8400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2140900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-14700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-14500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-13300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-4500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-8800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-16500</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-15400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-19300</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,8 +7654,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7507,8 +7741,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7830,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7919,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,94 +8008,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-95000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-66000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-450000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>319000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-272000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-98000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-76000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>167000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-150300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-70200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-258800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>95300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-87600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-381100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-140400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>156100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-144000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-15500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-693700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2849500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-148100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>31400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-19900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>82600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-110400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-64000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-71800</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7860,14 +8109,14 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -7878,149 +8127,155 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>600</v>
-      </c>
-      <c r="L101" s="3">
-        <v>200</v>
       </c>
       <c r="M101" s="3">
         <v>200</v>
       </c>
       <c r="N101" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O101" s="3">
         <v>100</v>
       </c>
       <c r="P101" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1800</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>800</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-200</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>100</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2000</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>5000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-11600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>16400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-13000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-571000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>601600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>4200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>5700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-14500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>17100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-5000</v>
       </c>
     </row>
